--- a/CRIq_dataworksheet_m.xlsx
+++ b/CRIq_dataworksheet_m.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\CRIq_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="222">
   <si>
     <t>Age</t>
   </si>
@@ -662,42 +662,6 @@
     <t>?(missing)</t>
   </si>
   <si>
-    <t>4,4</t>
-  </si>
-  <si>
-    <t>6,4</t>
-  </si>
-  <si>
-    <t>5,3</t>
-  </si>
-  <si>
-    <t>3,3</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>4,3</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>3,2</t>
-  </si>
-  <si>
-    <t>2,1</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
     <t>30?</t>
   </si>
   <si>
@@ -705,42 +669,6 @@
   </si>
   <si>
     <t>?(altijd)</t>
-  </si>
-  <si>
-    <t>5,5</t>
-  </si>
-  <si>
-    <t>4,2</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>5,4</t>
-  </si>
-  <si>
-    <t>2,4</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>6,6</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>4,6</t>
-  </si>
-  <si>
-    <t>6,5</t>
-  </si>
-  <si>
-    <t>3,6</t>
   </si>
   <si>
     <t>15?</t>
@@ -929,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -963,6 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1273,36 +1202,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB451"/>
+  <dimension ref="A1:BB189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z152" workbookViewId="0">
-      <selection activeCell="AX189" sqref="AX189"/>
+    <sheetView tabSelected="1" topLeftCell="AG162" workbookViewId="0">
+      <selection activeCell="AQ181" sqref="AQ181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="3" max="4" width="9.140625" style="6"/>
-    <col min="5" max="9" width="9.140625" style="7"/>
-    <col min="10" max="14" width="9.140625" style="11"/>
-    <col min="15" max="20" width="9.140625" style="16"/>
-    <col min="21" max="23" width="9.140625" style="8"/>
-    <col min="24" max="26" width="9.140625" style="19"/>
-    <col min="27" max="32" width="9.140625" style="12"/>
-    <col min="33" max="36" width="9.140625" style="6"/>
-    <col min="37" max="37" width="9.140625" style="5"/>
-    <col min="38" max="39" width="9.140625" style="16"/>
-    <col min="40" max="41" width="9.140625" style="8"/>
-    <col min="42" max="43" width="9.140625" style="7"/>
-    <col min="44" max="46" width="9.140625" style="19"/>
-    <col min="47" max="47" width="9.140625" style="6"/>
-    <col min="48" max="49" width="9.140625" style="29"/>
-    <col min="50" max="50" width="9.140625" style="31"/>
-    <col min="51" max="51" width="9.140625" style="8"/>
-    <col min="52" max="52" width="9.140625" style="23"/>
+    <col min="1" max="1" width="9.109375" style="5"/>
+    <col min="3" max="4" width="9.109375" style="6"/>
+    <col min="5" max="9" width="9.109375" style="7"/>
+    <col min="10" max="14" width="9.109375" style="11"/>
+    <col min="15" max="20" width="9.109375" style="16"/>
+    <col min="21" max="23" width="9.109375" style="8"/>
+    <col min="24" max="26" width="9.109375" style="19"/>
+    <col min="27" max="32" width="9.109375" style="12"/>
+    <col min="33" max="36" width="9.109375" style="6"/>
+    <col min="37" max="37" width="9.109375" style="5"/>
+    <col min="38" max="39" width="9.109375" style="16"/>
+    <col min="40" max="41" width="9.109375" style="8"/>
+    <col min="42" max="43" width="9.109375" style="7"/>
+    <col min="44" max="46" width="9.109375" style="19"/>
+    <col min="47" max="47" width="9.109375" style="6"/>
+    <col min="48" max="49" width="9.109375" style="29"/>
+    <col min="50" max="50" width="9.109375" style="31"/>
+    <col min="51" max="51" width="9.109375" style="8"/>
+    <col min="52" max="52" width="9.109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
@@ -1466,7 +1395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>181</v>
       </c>
@@ -1550,7 +1479,7 @@
         <v>20</v>
       </c>
       <c r="AB2" s="12">
-        <f>SUM(D2:I2)</f>
+        <f>SUM(E2:I2)</f>
         <v>15</v>
       </c>
       <c r="AC2" s="12">
@@ -1623,7 +1552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>182</v>
       </c>
@@ -1703,15 +1632,15 @@
         <v>40</v>
       </c>
       <c r="AA3" s="12">
-        <f t="shared" ref="AA3:AA43" si="0">SUM(C3:D3)</f>
+        <f t="shared" ref="AA3:AA66" si="0">SUM(C3:D3)</f>
         <v>17</v>
       </c>
       <c r="AB3" s="12">
-        <f t="shared" ref="AB3:AB43" si="1">SUM(D3:I3)</f>
-        <v>42</v>
+        <f t="shared" ref="AB3:AB66" si="1">SUM(E3:I3)</f>
+        <v>40</v>
       </c>
       <c r="AC3" s="12">
-        <f t="shared" ref="AC3:AC77" si="2">SUM(J3:Z3)</f>
+        <f t="shared" ref="AC3:AC66" si="2">SUM(J3:Z3)</f>
         <v>236</v>
       </c>
       <c r="AG3" s="6">
@@ -1770,7 +1699,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>211</v>
       </c>
@@ -1896,7 +1825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>212</v>
       </c>
@@ -2034,7 +1963,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>213</v>
       </c>
@@ -2181,7 +2110,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>214</v>
       </c>
@@ -2322,7 +2251,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>215</v>
       </c>
@@ -2469,7 +2398,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>216</v>
       </c>
@@ -2616,7 +2545,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>217</v>
       </c>
@@ -2763,7 +2692,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>218</v>
       </c>
@@ -2904,7 +2833,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>241</v>
       </c>
@@ -3051,7 +2980,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>242</v>
       </c>
@@ -3192,7 +3121,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>243</v>
       </c>
@@ -3339,7 +3268,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>244</v>
       </c>
@@ -3486,7 +3415,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>245</v>
       </c>
@@ -3633,7 +3562,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>246</v>
       </c>
@@ -3718,7 +3647,7 @@
       </c>
       <c r="AB17" s="12">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC17" s="12">
         <f t="shared" si="2"/>
@@ -3780,7 +3709,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>247</v>
       </c>
@@ -3927,7 +3856,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>248</v>
       </c>
@@ -4012,7 +3941,7 @@
       </c>
       <c r="AB19" s="12">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AC19" s="12">
         <f t="shared" si="2"/>
@@ -4074,7 +4003,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>249</v>
       </c>
@@ -4221,7 +4150,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>250</v>
       </c>
@@ -4368,7 +4297,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>251</v>
       </c>
@@ -4453,7 +4382,7 @@
       </c>
       <c r="AB22" s="12">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC22" s="12">
         <f t="shared" si="2"/>
@@ -4515,7 +4444,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>253</v>
       </c>
@@ -4662,7 +4591,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>254</v>
       </c>
@@ -4809,7 +4738,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>255</v>
       </c>
@@ -4956,7 +4885,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>256</v>
       </c>
@@ -5103,7 +5032,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>257</v>
       </c>
@@ -5188,7 +5117,7 @@
       </c>
       <c r="AB27" s="12">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC27" s="12">
         <f t="shared" si="2"/>
@@ -5250,7 +5179,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>258</v>
       </c>
@@ -5397,7 +5326,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>61</v>
       </c>
@@ -5516,11 +5445,11 @@
       <c r="AO29" s="8">
         <v>45</v>
       </c>
-      <c r="AP29" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ29" s="7" t="s">
-        <v>213</v>
+      <c r="AP29" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="AQ29" s="33">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AR29" s="19">
         <v>36</v>
@@ -5544,7 +5473,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>62</v>
       </c>
@@ -5663,11 +5592,11 @@
       <c r="AO30" s="8">
         <v>59</v>
       </c>
-      <c r="AP30" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="AQ30" s="7" t="s">
-        <v>219</v>
+      <c r="AP30" s="33">
+        <v>4.2</v>
+      </c>
+      <c r="AQ30" s="33">
+        <v>4.3</v>
       </c>
       <c r="AR30" s="19">
         <v>45</v>
@@ -5691,7 +5620,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>63</v>
       </c>
@@ -5776,7 +5705,7 @@
       </c>
       <c r="AB31" s="12">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AC31" s="12">
         <f t="shared" si="2"/>
@@ -5810,11 +5739,11 @@
       <c r="AO31" s="8">
         <v>148</v>
       </c>
-      <c r="AP31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ31" s="7" t="s">
-        <v>230</v>
+      <c r="AP31" s="33">
+        <v>3.2</v>
+      </c>
+      <c r="AQ31" s="33">
+        <v>1.2</v>
       </c>
       <c r="AR31" s="19">
         <v>50</v>
@@ -5838,7 +5767,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>64</v>
       </c>
@@ -5957,11 +5886,11 @@
       <c r="AO32" s="8">
         <v>64</v>
       </c>
-      <c r="AP32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="AQ32" s="7" t="s">
-        <v>224</v>
+      <c r="AP32" s="33">
+        <v>5.4</v>
+      </c>
+      <c r="AQ32" s="33">
+        <v>2.2000000000000002</v>
       </c>
       <c r="AR32" s="19">
         <v>40</v>
@@ -5985,7 +5914,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>65</v>
       </c>
@@ -6104,11 +6033,11 @@
       <c r="AO33" s="8">
         <v>58</v>
       </c>
-      <c r="AP33" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="AQ33" s="7" t="s">
-        <v>220</v>
+      <c r="AP33" s="33">
+        <v>2.4</v>
+      </c>
+      <c r="AQ33" s="33">
+        <v>3.4</v>
       </c>
       <c r="AR33" s="19">
         <v>55</v>
@@ -6132,7 +6061,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>66</v>
       </c>
@@ -6251,11 +6180,11 @@
       <c r="AO34" s="8">
         <v>57</v>
       </c>
-      <c r="AP34" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ34" s="7" t="s">
-        <v>218</v>
+      <c r="AP34" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AQ34" s="33">
+        <v>4.5</v>
       </c>
       <c r="AR34" s="19">
         <v>34</v>
@@ -6279,7 +6208,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>67</v>
       </c>
@@ -6364,7 +6293,7 @@
       </c>
       <c r="AB35" s="12">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC35" s="12">
         <f t="shared" si="2"/>
@@ -6398,11 +6327,11 @@
       <c r="AO35" s="8">
         <v>46</v>
       </c>
-      <c r="AP35" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ35" s="7" t="s">
-        <v>216</v>
+      <c r="AP35" s="33">
+        <v>3.4</v>
+      </c>
+      <c r="AQ35" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR35" s="19">
         <v>51</v>
@@ -6426,7 +6355,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>68</v>
       </c>
@@ -6545,11 +6474,11 @@
       <c r="AO36" s="8">
         <v>58</v>
       </c>
-      <c r="AP36" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="AQ36" s="7" t="s">
-        <v>216</v>
+      <c r="AP36" s="33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AQ36" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR36" s="19">
         <v>57</v>
@@ -6573,7 +6502,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>69</v>
       </c>
@@ -6692,11 +6621,11 @@
       <c r="AO37" s="8">
         <v>146</v>
       </c>
-      <c r="AP37" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ37" s="7" t="s">
-        <v>230</v>
+      <c r="AP37" s="33">
+        <v>3.2</v>
+      </c>
+      <c r="AQ37" s="33">
+        <v>1.2</v>
       </c>
       <c r="AR37" s="19">
         <v>50</v>
@@ -6720,7 +6649,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>70</v>
       </c>
@@ -6839,11 +6768,11 @@
       <c r="AO38" s="8">
         <v>40</v>
       </c>
-      <c r="AP38" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ38" s="7" t="s">
-        <v>233</v>
+      <c r="AP38" s="33">
+        <v>5.5</v>
+      </c>
+      <c r="AQ38" s="33">
+        <v>3.1</v>
       </c>
       <c r="AR38" s="19">
         <v>40</v>
@@ -6867,7 +6796,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>71</v>
       </c>
@@ -6986,11 +6915,11 @@
       <c r="AO39" s="8">
         <v>37</v>
       </c>
-      <c r="AP39" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ39" s="7" t="s">
-        <v>213</v>
+      <c r="AP39" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AQ39" s="33">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AR39" s="19">
         <v>45</v>
@@ -7014,7 +6943,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>72</v>
       </c>
@@ -7133,11 +7062,11 @@
       <c r="AO40" s="8">
         <v>29</v>
       </c>
-      <c r="AP40" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ40" s="7" t="s">
-        <v>216</v>
+      <c r="AP40" s="33">
+        <v>5.5</v>
+      </c>
+      <c r="AQ40" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR40" s="19">
         <v>41</v>
@@ -7161,7 +7090,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>91</v>
       </c>
@@ -7246,7 +7175,7 @@
       </c>
       <c r="AB41" s="12">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC41" s="12">
         <f t="shared" si="2"/>
@@ -7280,11 +7209,11 @@
       <c r="AO41" s="8">
         <v>83</v>
       </c>
-      <c r="AP41" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AQ41" s="7" t="s">
-        <v>216</v>
+      <c r="AP41" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="AQ41" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR41" s="19">
         <v>50</v>
@@ -7308,7 +7237,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>92</v>
       </c>
@@ -7430,8 +7359,8 @@
       <c r="AP42" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AQ42" s="7" t="s">
-        <v>213</v>
+      <c r="AQ42" s="33">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AR42" s="19">
         <v>45</v>
@@ -7455,7 +7384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>93</v>
       </c>
@@ -7540,7 +7469,7 @@
       </c>
       <c r="AB43" s="12">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC43" s="12">
         <f t="shared" si="2"/>
@@ -7574,11 +7503,11 @@
       <c r="AO43" s="8">
         <v>75</v>
       </c>
-      <c r="AP43" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="AQ43" s="7" t="s">
-        <v>220</v>
+      <c r="AP43" s="33">
+        <v>5.4</v>
+      </c>
+      <c r="AQ43" s="33">
+        <v>3.4</v>
       </c>
       <c r="AR43" s="19">
         <v>57</v>
@@ -7602,7 +7531,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>94</v>
       </c>
@@ -7680,6 +7609,14 @@
       </c>
       <c r="Z44" s="19">
         <v>5</v>
+      </c>
+      <c r="AA44" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB44" s="12">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="AC44" s="12">
         <f t="shared" si="2"/>
@@ -7713,11 +7650,11 @@
       <c r="AO44" s="8">
         <v>73</v>
       </c>
-      <c r="AP44" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ44" s="7" t="s">
-        <v>219</v>
+      <c r="AP44" s="33">
+        <v>3.3</v>
+      </c>
+      <c r="AQ44" s="33">
+        <v>4.3</v>
       </c>
       <c r="AR44" s="19">
         <v>58</v>
@@ -7741,7 +7678,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>95</v>
       </c>
@@ -7819,6 +7756,14 @@
       </c>
       <c r="Z45" s="19">
         <v>30</v>
+      </c>
+      <c r="AA45" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AB45" s="12">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="AC45" s="12">
         <f t="shared" si="2"/>
@@ -7852,11 +7797,11 @@
       <c r="AO45" s="8">
         <v>77</v>
       </c>
-      <c r="AP45" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="AQ45" s="7" t="s">
-        <v>221</v>
+      <c r="AP45" s="33">
+        <v>5.4</v>
+      </c>
+      <c r="AQ45" s="33">
+        <v>3.2</v>
       </c>
       <c r="AR45" s="19">
         <v>43</v>
@@ -7880,7 +7825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>96</v>
       </c>
@@ -7958,6 +7903,14 @@
       </c>
       <c r="Z46" s="19">
         <v>5</v>
+      </c>
+      <c r="AA46" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB46" s="12">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AC46" s="12">
         <f t="shared" si="2"/>
@@ -8019,7 +7972,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>97</v>
       </c>
@@ -8097,6 +8050,14 @@
       </c>
       <c r="Z47" s="19">
         <v>5</v>
+      </c>
+      <c r="AA47" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB47" s="12">
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="AC47" s="12">
         <f t="shared" si="2"/>
@@ -8130,11 +8091,11 @@
       <c r="AO47" s="8">
         <v>46</v>
       </c>
-      <c r="AP47" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ47" s="7" t="s">
-        <v>218</v>
+      <c r="AP47" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AQ47" s="33">
+        <v>4.5</v>
       </c>
       <c r="AR47" s="19">
         <v>42</v>
@@ -8158,7 +8119,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>98</v>
       </c>
@@ -8235,6 +8196,14 @@
         <v>0</v>
       </c>
       <c r="Z48" s="19">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB48" s="12">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="AC48" s="12">
@@ -8269,11 +8238,11 @@
       <c r="AO48" s="8">
         <v>46</v>
       </c>
-      <c r="AP48" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AQ48" s="7" t="s">
-        <v>220</v>
+      <c r="AP48" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="AQ48" s="33">
+        <v>3.4</v>
       </c>
       <c r="AR48" s="19">
         <v>37</v>
@@ -8297,7 +8266,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>99</v>
       </c>
@@ -8375,6 +8344,14 @@
       </c>
       <c r="Z49" s="19">
         <v>55</v>
+      </c>
+      <c r="AA49" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB49" s="12">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="AC49" s="12">
         <f t="shared" si="2"/>
@@ -8408,11 +8385,11 @@
       <c r="AO49" s="8">
         <v>47</v>
       </c>
-      <c r="AP49" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AQ49" s="7" t="s">
-        <v>231</v>
+      <c r="AP49" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="AQ49" s="33">
+        <v>5.4</v>
       </c>
       <c r="AR49" s="19">
         <v>35</v>
@@ -8436,7 +8413,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>421</v>
       </c>
@@ -8514,6 +8491,14 @@
       </c>
       <c r="Z50" s="19">
         <v>10</v>
+      </c>
+      <c r="AA50" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB50" s="12">
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="AC50" s="12">
         <f t="shared" si="2"/>
@@ -8536,7 +8521,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>422</v>
       </c>
@@ -8614,6 +8599,14 @@
       </c>
       <c r="Z51" s="19">
         <v>45</v>
+      </c>
+      <c r="AA51" s="12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB51" s="12">
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="AC51" s="12">
         <f t="shared" si="2"/>
@@ -8636,7 +8629,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>423</v>
       </c>
@@ -8714,6 +8707,14 @@
       </c>
       <c r="Z52" s="19">
         <v>45</v>
+      </c>
+      <c r="AA52" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AB52" s="12">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AC52" s="12">
         <f t="shared" si="2"/>
@@ -8736,7 +8737,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>424</v>
       </c>
@@ -8814,6 +8815,14 @@
       </c>
       <c r="Z53" s="19">
         <v>5</v>
+      </c>
+      <c r="AA53" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AB53" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC53" s="12">
         <f t="shared" si="2"/>
@@ -8836,7 +8845,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>425</v>
       </c>
@@ -8913,6 +8922,14 @@
         <v>55</v>
       </c>
       <c r="Z54" s="19">
+        <v>55</v>
+      </c>
+      <c r="AA54" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AB54" s="12">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="AC54" s="12">
@@ -8936,7 +8953,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>426</v>
       </c>
@@ -9013,6 +9030,14 @@
         <v>0</v>
       </c>
       <c r="Z55" s="19">
+        <v>45</v>
+      </c>
+      <c r="AA55" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB55" s="12">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="AC55" s="12">
@@ -9036,7 +9061,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>427</v>
       </c>
@@ -9114,6 +9139,14 @@
       </c>
       <c r="Z56" s="19">
         <v>15</v>
+      </c>
+      <c r="AA56" s="12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AB56" s="12">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="AC56" s="12">
         <f t="shared" si="2"/>
@@ -9136,7 +9169,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>1</v>
       </c>
@@ -9214,6 +9247,14 @@
       </c>
       <c r="Z57" s="19">
         <v>30</v>
+      </c>
+      <c r="AA57" s="12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AB57" s="12">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AC57" s="12">
         <f t="shared" si="2"/>
@@ -9275,7 +9316,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>2</v>
       </c>
@@ -9352,6 +9393,14 @@
         <v>35</v>
       </c>
       <c r="Z58" s="19">
+        <v>35</v>
+      </c>
+      <c r="AA58" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB58" s="12">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="AC58" s="12">
@@ -9414,7 +9463,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>3</v>
       </c>
@@ -9491,6 +9540,14 @@
         <v>5</v>
       </c>
       <c r="Z59" s="19">
+        <v>10</v>
+      </c>
+      <c r="AA59" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB59" s="12">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AC59" s="12">
@@ -9553,7 +9610,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>5</v>
       </c>
@@ -9630,6 +9687,14 @@
         <v>5</v>
       </c>
       <c r="Z60" s="19">
+        <v>10</v>
+      </c>
+      <c r="AA60" s="12">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AB60" s="12">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AC60" s="12">
@@ -9692,7 +9757,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>6</v>
       </c>
@@ -9770,6 +9835,14 @@
       </c>
       <c r="Z61" s="19">
         <v>45</v>
+      </c>
+      <c r="AA61" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB61" s="12">
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="AC61" s="12">
         <f t="shared" si="2"/>
@@ -9831,7 +9904,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>31</v>
       </c>
@@ -9909,6 +9982,14 @@
       </c>
       <c r="Z62" s="19">
         <v>45</v>
+      </c>
+      <c r="AA62" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB62" s="12">
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="AC62" s="12">
         <f t="shared" si="2"/>
@@ -9970,7 +10051,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>32</v>
       </c>
@@ -10047,6 +10128,14 @@
         <v>10</v>
       </c>
       <c r="Z63" s="19">
+        <v>50</v>
+      </c>
+      <c r="AA63" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB63" s="12">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="AC63" s="12">
@@ -10088,7 +10177,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>33</v>
       </c>
@@ -10166,6 +10255,14 @@
       </c>
       <c r="Z64" s="19">
         <v>50</v>
+      </c>
+      <c r="AA64" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB64" s="12">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AC64" s="12">
         <f t="shared" si="2"/>
@@ -10227,7 +10324,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>34</v>
       </c>
@@ -10305,6 +10402,14 @@
       </c>
       <c r="Z65" s="19">
         <v>45</v>
+      </c>
+      <c r="AA65" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB65" s="12">
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="AC65" s="12">
         <f t="shared" si="2"/>
@@ -10366,7 +10471,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>35</v>
       </c>
@@ -10444,6 +10549,14 @@
       </c>
       <c r="Z66" s="19">
         <v>40</v>
+      </c>
+      <c r="AA66" s="12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AB66" s="12">
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="AC66" s="12">
         <f t="shared" si="2"/>
@@ -10505,7 +10618,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>36</v>
       </c>
@@ -10584,8 +10697,16 @@
       <c r="Z67" s="19">
         <v>35</v>
       </c>
+      <c r="AA67" s="12">
+        <f t="shared" ref="AA67:AA130" si="4">SUM(C67:D67)</f>
+        <v>20</v>
+      </c>
+      <c r="AB67" s="12">
+        <f t="shared" ref="AB67:AB130" si="5">SUM(E67:I67)</f>
+        <v>15</v>
+      </c>
       <c r="AC67" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AC67:AC130" si="6">SUM(J67:Z67)</f>
         <v>452</v>
       </c>
       <c r="AG67" s="6">
@@ -10601,7 +10722,7 @@
         <v>31</v>
       </c>
       <c r="AK67" s="5">
-        <f t="shared" ref="AK67:AK130" si="4">A67</f>
+        <f t="shared" ref="AK67:AK130" si="7">A67</f>
         <v>36</v>
       </c>
       <c r="AL67" s="16" t="s">
@@ -10644,7 +10765,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>37</v>
       </c>
@@ -10723,8 +10844,16 @@
       <c r="Z68" s="19">
         <v>40</v>
       </c>
+      <c r="AA68" s="12">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AB68" s="12">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
       <c r="AC68" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>297</v>
       </c>
       <c r="AG68" s="6" t="s">
@@ -10740,7 +10869,7 @@
         <v>31</v>
       </c>
       <c r="AK68" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="AL68" s="16">
@@ -10783,7 +10912,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>73</v>
       </c>
@@ -10862,8 +10991,16 @@
       <c r="Z69" s="19">
         <v>60</v>
       </c>
+      <c r="AA69" s="12">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="AB69" s="12">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
       <c r="AC69" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>432</v>
       </c>
       <c r="AG69" s="6">
@@ -10879,7 +11016,7 @@
         <v>130</v>
       </c>
       <c r="AK69" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="AL69" s="16" t="s">
@@ -10922,7 +11059,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>331</v>
       </c>
@@ -11001,8 +11138,16 @@
       <c r="Z70" s="19">
         <v>25</v>
       </c>
+      <c r="AA70" s="12">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="AB70" s="12">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
       <c r="AC70" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="AG70" s="6">
@@ -11018,11 +11163,11 @@
         <v>104</v>
       </c>
       <c r="AK70" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>331</v>
       </c>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>302</v>
       </c>
@@ -11101,8 +11246,16 @@
       <c r="Z71" s="19">
         <v>30</v>
       </c>
+      <c r="AA71" s="12">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="AB71" s="12">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
       <c r="AC71" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>257</v>
       </c>
       <c r="AG71" s="6">
@@ -11118,11 +11271,11 @@
         <v>124</v>
       </c>
       <c r="AK71" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>302</v>
       </c>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>303</v>
       </c>
@@ -11201,8 +11354,16 @@
       <c r="Z72" s="19">
         <v>0</v>
       </c>
+      <c r="AA72" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB72" s="12">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
       <c r="AC72" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>232</v>
       </c>
       <c r="AG72" s="6">
@@ -11218,11 +11379,11 @@
         <v>111</v>
       </c>
       <c r="AK72" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>303</v>
       </c>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>364</v>
       </c>
@@ -11301,8 +11462,16 @@
       <c r="Z73" s="19">
         <v>45</v>
       </c>
+      <c r="AA73" s="12">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="AB73" s="12">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
       <c r="AC73" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>352</v>
       </c>
       <c r="AG73" s="6">
@@ -11318,11 +11487,11 @@
         <v>46</v>
       </c>
       <c r="AK73" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>364</v>
       </c>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>365</v>
       </c>
@@ -11401,8 +11570,16 @@
       <c r="Z74" s="19">
         <v>45</v>
       </c>
+      <c r="AA74" s="12">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="AB74" s="12">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
       <c r="AC74" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>382</v>
       </c>
       <c r="AG74" s="6">
@@ -11418,11 +11595,11 @@
         <v>163</v>
       </c>
       <c r="AK74" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>366</v>
       </c>
@@ -11501,8 +11678,16 @@
       <c r="Z75" s="19">
         <v>45</v>
       </c>
+      <c r="AA75" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB75" s="12">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
       <c r="AC75" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>352</v>
       </c>
       <c r="AG75" s="6">
@@ -11518,11 +11703,11 @@
         <v>130</v>
       </c>
       <c r="AK75" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>366</v>
       </c>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>367</v>
       </c>
@@ -11601,8 +11786,16 @@
       <c r="Z76" s="19">
         <v>0</v>
       </c>
+      <c r="AA76" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB76" s="12">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
       <c r="AC76" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>252</v>
       </c>
       <c r="AG76" s="6">
@@ -11618,11 +11811,11 @@
         <v>121</v>
       </c>
       <c r="AK76" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>367</v>
       </c>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>368</v>
       </c>
@@ -11701,8 +11894,16 @@
       <c r="Z77" s="19">
         <v>55</v>
       </c>
+      <c r="AA77" s="12">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="AB77" s="12">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
       <c r="AC77" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>432</v>
       </c>
       <c r="AG77" s="6">
@@ -11718,11 +11919,11 @@
         <v>147</v>
       </c>
       <c r="AK77" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>369</v>
       </c>
@@ -11801,6 +12002,18 @@
       <c r="Z78" s="19">
         <v>45</v>
       </c>
+      <c r="AA78" s="12">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="AB78" s="12">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="AC78" s="12">
+        <f t="shared" si="6"/>
+        <v>257</v>
+      </c>
       <c r="AG78" s="6">
         <v>144</v>
       </c>
@@ -11814,11 +12027,11 @@
         <v>138</v>
       </c>
       <c r="AK78" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>369</v>
       </c>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>370</v>
       </c>
@@ -11897,6 +12110,18 @@
       <c r="Z79" s="19">
         <v>5</v>
       </c>
+      <c r="AA79" s="12">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="AB79" s="12">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="AC79" s="12">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
       <c r="AG79" s="6">
         <v>102</v>
       </c>
@@ -11910,11 +12135,11 @@
         <v>97</v>
       </c>
       <c r="AK79" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>370</v>
       </c>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>371</v>
       </c>
@@ -11993,6 +12218,18 @@
       <c r="Z80" s="19">
         <v>35</v>
       </c>
+      <c r="AA80" s="12">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="AB80" s="12">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="AC80" s="12">
+        <f t="shared" si="6"/>
+        <v>332</v>
+      </c>
       <c r="AG80" s="6">
         <v>118</v>
       </c>
@@ -12006,11 +12243,11 @@
         <v>127</v>
       </c>
       <c r="AK80" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>371</v>
       </c>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>372</v>
       </c>
@@ -12089,6 +12326,18 @@
       <c r="Z81" s="19">
         <v>40</v>
       </c>
+      <c r="AA81" s="12">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="AB81" s="12">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="AC81" s="12">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
       <c r="AG81" s="6">
         <v>149</v>
       </c>
@@ -12102,11 +12351,11 @@
         <v>132</v>
       </c>
       <c r="AK81" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>373</v>
       </c>
@@ -12185,6 +12434,18 @@
       <c r="Z82" s="19">
         <v>5</v>
       </c>
+      <c r="AA82" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB82" s="12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="AC82" s="12">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
       <c r="AG82" s="6">
         <v>100</v>
       </c>
@@ -12198,11 +12459,11 @@
         <v>95</v>
       </c>
       <c r="AK82" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>373</v>
       </c>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>374</v>
       </c>
@@ -12281,6 +12542,18 @@
       <c r="Z83" s="19">
         <v>5</v>
       </c>
+      <c r="AA83" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB83" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC83" s="12">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
       <c r="AG83" s="6">
         <v>97</v>
       </c>
@@ -12294,11 +12567,11 @@
         <v>93</v>
       </c>
       <c r="AK83" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>375</v>
       </c>
@@ -12377,6 +12650,18 @@
       <c r="Z84" s="19">
         <v>30</v>
       </c>
+      <c r="AA84" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB84" s="12">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="AC84" s="12">
+        <f t="shared" si="6"/>
+        <v>232</v>
+      </c>
       <c r="AG84" s="6">
         <v>116</v>
       </c>
@@ -12390,11 +12675,11 @@
         <v>117</v>
       </c>
       <c r="AK84" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>375</v>
       </c>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>376</v>
       </c>
@@ -12473,6 +12758,18 @@
       <c r="Z85" s="19">
         <v>35</v>
       </c>
+      <c r="AA85" s="12">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AB85" s="12">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="AC85" s="12">
+        <f t="shared" si="6"/>
+        <v>242</v>
+      </c>
       <c r="AG85" s="6">
         <v>111</v>
       </c>
@@ -12486,11 +12783,11 @@
         <v>118</v>
       </c>
       <c r="AK85" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>376</v>
       </c>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>377</v>
       </c>
@@ -12569,6 +12866,18 @@
       <c r="Z86" s="19">
         <v>35</v>
       </c>
+      <c r="AA86" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB86" s="12">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AC86" s="12">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
       <c r="AG86" s="6">
         <v>114</v>
       </c>
@@ -12582,11 +12891,11 @@
         <v>119</v>
       </c>
       <c r="AK86" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>377</v>
       </c>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>378</v>
       </c>
@@ -12665,6 +12974,18 @@
       <c r="Z87" s="19">
         <v>40</v>
       </c>
+      <c r="AA87" s="12">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="AB87" s="12">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AC87" s="12">
+        <f t="shared" si="6"/>
+        <v>278</v>
+      </c>
       <c r="AG87" s="6">
         <v>132</v>
       </c>
@@ -12678,11 +12999,11 @@
         <v>130</v>
       </c>
       <c r="AK87" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>378</v>
       </c>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>379</v>
       </c>
@@ -12761,6 +13082,18 @@
       <c r="Z88" s="19">
         <v>40</v>
       </c>
+      <c r="AA88" s="12">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AB88" s="12">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="AC88" s="12">
+        <f t="shared" si="6"/>
+        <v>363</v>
+      </c>
       <c r="AG88" s="6">
         <v>109</v>
       </c>
@@ -12774,11 +13107,11 @@
         <v>126</v>
       </c>
       <c r="AK88" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>379</v>
       </c>
     </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>271</v>
       </c>
@@ -12857,6 +13190,18 @@
       <c r="Z89" s="19">
         <v>5</v>
       </c>
+      <c r="AA89" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB89" s="12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="AC89" s="12">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
       <c r="AG89" s="6">
         <v>102</v>
       </c>
@@ -12870,7 +13215,7 @@
         <v>95</v>
       </c>
       <c r="AK89" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>271</v>
       </c>
       <c r="AL89" s="16">
@@ -12885,11 +13230,11 @@
       <c r="AO89" s="8">
         <v>42</v>
       </c>
-      <c r="AP89" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="AQ89" s="7" t="s">
-        <v>216</v>
+      <c r="AP89" s="33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ89" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR89" s="19">
         <v>49</v>
@@ -12913,7 +13258,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>272</v>
       </c>
@@ -12992,6 +13337,18 @@
       <c r="Z90" s="19">
         <v>5</v>
       </c>
+      <c r="AA90" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB90" s="12">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="AC90" s="12">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
       <c r="AG90" s="6">
         <v>98</v>
       </c>
@@ -13005,7 +13362,7 @@
         <v>93</v>
       </c>
       <c r="AK90" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>272</v>
       </c>
       <c r="AL90" s="16">
@@ -13020,11 +13377,11 @@
       <c r="AO90" s="8">
         <v>26</v>
       </c>
-      <c r="AP90" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ90" s="7" t="s">
-        <v>237</v>
+      <c r="AP90" s="33">
+        <v>5.5</v>
+      </c>
+      <c r="AQ90" s="33">
+        <v>4.5999999999999996</v>
       </c>
       <c r="AR90" s="19">
         <v>35</v>
@@ -13048,7 +13405,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>273</v>
       </c>
@@ -13127,6 +13484,18 @@
       <c r="Z91" s="19">
         <v>0</v>
       </c>
+      <c r="AA91" s="12">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AB91" s="12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="AC91" s="12">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
       <c r="AG91" s="6">
         <v>92</v>
       </c>
@@ -13140,7 +13509,7 @@
         <v>89</v>
       </c>
       <c r="AK91" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>273</v>
       </c>
       <c r="AL91" s="16">
@@ -13155,11 +13524,11 @@
       <c r="AO91" s="8">
         <v>146</v>
       </c>
-      <c r="AP91" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ91" s="7" t="s">
-        <v>230</v>
+      <c r="AP91" s="33">
+        <v>3.3</v>
+      </c>
+      <c r="AQ91" s="33">
+        <v>1.2</v>
       </c>
       <c r="AR91" s="19">
         <v>43</v>
@@ -13180,7 +13549,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>274</v>
       </c>
@@ -13259,6 +13628,18 @@
       <c r="Z92" s="19">
         <v>5</v>
       </c>
+      <c r="AA92" s="12">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AB92" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC92" s="12">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
       <c r="AG92" s="6">
         <v>93</v>
       </c>
@@ -13272,7 +13653,7 @@
         <v>92</v>
       </c>
       <c r="AK92" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>274</v>
       </c>
       <c r="AL92" s="16">
@@ -13287,11 +13668,11 @@
       <c r="AO92" s="8">
         <v>35</v>
       </c>
-      <c r="AP92" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ92" s="7" t="s">
-        <v>229</v>
+      <c r="AP92" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AQ92" s="33">
+        <v>4.2</v>
       </c>
       <c r="AR92" s="19">
         <v>48</v>
@@ -13312,7 +13693,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>275</v>
       </c>
@@ -13391,6 +13772,18 @@
       <c r="Z93" s="19">
         <v>45</v>
       </c>
+      <c r="AA93" s="12">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="AB93" s="12">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="AC93" s="12">
+        <f t="shared" si="6"/>
+        <v>367</v>
+      </c>
       <c r="AG93" s="6">
         <v>158</v>
       </c>
@@ -13404,7 +13797,7 @@
         <v>156</v>
       </c>
       <c r="AK93" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>275</v>
       </c>
       <c r="AL93" s="16">
@@ -13419,11 +13812,11 @@
       <c r="AO93" s="8">
         <v>70</v>
       </c>
-      <c r="AP93" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="AQ93" s="7" t="s">
-        <v>221</v>
+      <c r="AP93" s="33">
+        <v>4.2</v>
+      </c>
+      <c r="AQ93" s="33">
+        <v>3.2</v>
       </c>
       <c r="AR93" s="19">
         <v>45</v>
@@ -13444,7 +13837,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>276</v>
       </c>
@@ -13523,6 +13916,18 @@
       <c r="Z94" s="19">
         <v>50</v>
       </c>
+      <c r="AA94" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB94" s="12">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="AC94" s="12">
+        <f t="shared" si="6"/>
+        <v>289</v>
+      </c>
       <c r="AG94" s="6">
         <v>125</v>
       </c>
@@ -13536,7 +13941,7 @@
         <v>129</v>
       </c>
       <c r="AK94" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>276</v>
       </c>
       <c r="AL94" s="16">
@@ -13551,11 +13956,11 @@
       <c r="AO94" s="8">
         <v>54</v>
       </c>
-      <c r="AP94" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="AQ94" s="7" t="s">
-        <v>218</v>
+      <c r="AP94" s="33">
+        <v>6.6</v>
+      </c>
+      <c r="AQ94" s="33">
+        <v>4.5</v>
       </c>
       <c r="AR94" s="19">
         <v>42</v>
@@ -13576,7 +13981,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>277</v>
       </c>
@@ -13655,6 +14060,18 @@
       <c r="Z95" s="19">
         <v>15</v>
       </c>
+      <c r="AA95" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB95" s="12">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="AC95" s="12">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
       <c r="AG95" s="6">
         <v>107</v>
       </c>
@@ -13668,7 +14085,7 @@
         <v>103</v>
       </c>
       <c r="AK95" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>277</v>
       </c>
       <c r="AL95" s="16">
@@ -13683,11 +14100,11 @@
       <c r="AO95" s="8">
         <v>40</v>
       </c>
-      <c r="AP95" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="AQ95" s="7" t="s">
-        <v>217</v>
+      <c r="AP95" s="33">
+        <v>6.6</v>
+      </c>
+      <c r="AQ95" s="33">
+        <v>3.5</v>
       </c>
       <c r="AR95" s="19">
         <v>42</v>
@@ -13708,7 +14125,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>278</v>
       </c>
@@ -13787,6 +14204,18 @@
       <c r="Z96" s="19">
         <v>10</v>
       </c>
+      <c r="AA96" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB96" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC96" s="12">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
       <c r="AG96" s="6">
         <v>108</v>
       </c>
@@ -13800,7 +14229,7 @@
         <v>95</v>
       </c>
       <c r="AK96" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>278</v>
       </c>
       <c r="AL96" s="16">
@@ -13815,11 +14244,11 @@
       <c r="AO96" s="8">
         <v>43</v>
       </c>
-      <c r="AP96" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="AQ96" s="7" t="s">
-        <v>213</v>
+      <c r="AP96" s="33">
+        <v>5.4</v>
+      </c>
+      <c r="AQ96" s="33">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AR96" s="19">
         <v>43</v>
@@ -13840,7 +14269,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>279</v>
       </c>
@@ -13919,6 +14348,18 @@
       <c r="Z97" s="19">
         <v>50</v>
       </c>
+      <c r="AA97" s="12">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="AB97" s="12">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AC97" s="12">
+        <f t="shared" si="6"/>
+        <v>257</v>
+      </c>
       <c r="AG97" s="6">
         <v>155</v>
       </c>
@@ -13932,7 +14373,7 @@
         <v>139</v>
       </c>
       <c r="AK97" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>279</v>
       </c>
       <c r="AL97" s="16">
@@ -13947,11 +14388,11 @@
       <c r="AO97" s="8">
         <v>43</v>
       </c>
-      <c r="AP97" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AQ97" s="7" t="s">
-        <v>220</v>
+      <c r="AP97" s="33">
+        <v>4.3</v>
+      </c>
+      <c r="AQ97" s="33">
+        <v>3.4</v>
       </c>
       <c r="AR97" s="19">
         <v>51</v>
@@ -13972,7 +14413,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>301</v>
       </c>
@@ -14051,6 +14492,18 @@
       <c r="Z98" s="19">
         <v>20</v>
       </c>
+      <c r="AA98" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB98" s="12">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="AC98" s="12">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
       <c r="AG98" s="6">
         <v>105</v>
       </c>
@@ -14064,7 +14517,7 @@
         <v>100</v>
       </c>
       <c r="AK98" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>301</v>
       </c>
       <c r="AL98" s="16">
@@ -14079,11 +14532,11 @@
       <c r="AO98" s="8">
         <v>57</v>
       </c>
-      <c r="AP98" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="AQ98" s="7" t="s">
-        <v>224</v>
+      <c r="AP98" s="33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AQ98" s="33">
+        <v>2.2000000000000002</v>
       </c>
       <c r="AR98" s="19">
         <v>55</v>
@@ -14104,7 +14557,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>302</v>
       </c>
@@ -14183,6 +14636,18 @@
       <c r="Z99" s="19">
         <v>10</v>
       </c>
+      <c r="AA99" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB99" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC99" s="12">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
       <c r="AG99" s="6">
         <v>106</v>
       </c>
@@ -14196,7 +14661,7 @@
         <v>87</v>
       </c>
       <c r="AK99" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>302</v>
       </c>
       <c r="AL99" s="16">
@@ -14211,11 +14676,11 @@
       <c r="AO99" s="8">
         <v>84</v>
       </c>
-      <c r="AP99" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ99" s="7" t="s">
-        <v>234</v>
+      <c r="AP99" s="33">
+        <v>3.2</v>
+      </c>
+      <c r="AQ99" s="33">
+        <v>2.2999999999999998</v>
       </c>
       <c r="AR99" s="19">
         <v>50</v>
@@ -14236,7 +14701,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>303</v>
       </c>
@@ -14315,6 +14780,18 @@
       <c r="Z100" s="19">
         <v>5</v>
       </c>
+      <c r="AA100" s="12">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AB100" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC100" s="12">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
       <c r="AG100" s="6">
         <v>91</v>
       </c>
@@ -14328,7 +14805,7 @@
         <v>90</v>
       </c>
       <c r="AK100" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>303</v>
       </c>
       <c r="AL100" s="16">
@@ -14343,11 +14820,11 @@
       <c r="AO100" s="8">
         <v>50</v>
       </c>
-      <c r="AP100" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="AQ100" s="7" t="s">
-        <v>216</v>
+      <c r="AP100" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="AQ100" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR100" s="19">
         <v>50</v>
@@ -14368,7 +14845,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>304</v>
       </c>
@@ -14447,6 +14924,18 @@
       <c r="Z101" s="19">
         <v>5</v>
       </c>
+      <c r="AA101" s="12">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AB101" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC101" s="12">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
       <c r="AG101" s="6">
         <v>91</v>
       </c>
@@ -14460,7 +14949,7 @@
         <v>90</v>
       </c>
       <c r="AK101" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>304</v>
       </c>
       <c r="AL101" s="16">
@@ -14475,11 +14964,11 @@
       <c r="AO101" s="8">
         <v>47</v>
       </c>
-      <c r="AP101" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ101" s="7" t="s">
-        <v>217</v>
+      <c r="AP101" s="33">
+        <v>5.5</v>
+      </c>
+      <c r="AQ101" s="33">
+        <v>3.5</v>
       </c>
       <c r="AR101" s="19">
         <v>43</v>
@@ -14500,7 +14989,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>305</v>
       </c>
@@ -14579,6 +15068,18 @@
       <c r="Z102" s="19">
         <v>5</v>
       </c>
+      <c r="AA102" s="12">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AB102" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC102" s="12">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
       <c r="AG102" s="6">
         <v>91</v>
       </c>
@@ -14592,7 +15093,7 @@
         <v>90</v>
       </c>
       <c r="AK102" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>305</v>
       </c>
       <c r="AL102" s="16">
@@ -14607,11 +15108,11 @@
       <c r="AO102" s="8">
         <v>50</v>
       </c>
-      <c r="AP102" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ102" s="7" t="s">
-        <v>233</v>
+      <c r="AP102" s="33">
+        <v>3.3</v>
+      </c>
+      <c r="AQ102" s="33">
+        <v>3.1</v>
       </c>
       <c r="AR102" s="19">
         <v>45</v>
@@ -14632,7 +15133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>306</v>
       </c>
@@ -14711,6 +15212,18 @@
       <c r="Z103" s="19">
         <v>5</v>
       </c>
+      <c r="AA103" s="12">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AB103" s="12">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="AC103" s="12">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
       <c r="AG103" s="6">
         <v>98</v>
       </c>
@@ -14724,7 +15237,7 @@
         <v>99</v>
       </c>
       <c r="AK103" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>306</v>
       </c>
       <c r="AL103" s="16">
@@ -14739,11 +15252,11 @@
       <c r="AO103" s="8">
         <v>66</v>
       </c>
-      <c r="AP103" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="AQ103" s="7" t="s">
-        <v>233</v>
+      <c r="AP103" s="33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AQ103" s="33">
+        <v>3.1</v>
       </c>
       <c r="AR103" s="19">
         <v>48</v>
@@ -14764,7 +15277,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>307</v>
       </c>
@@ -14843,6 +15356,18 @@
       <c r="Z104" s="19">
         <v>5</v>
       </c>
+      <c r="AA104" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB104" s="12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="AC104" s="12">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
       <c r="AG104" s="6">
         <v>99</v>
       </c>
@@ -14856,7 +15381,7 @@
         <v>84</v>
       </c>
       <c r="AK104" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>307</v>
       </c>
       <c r="AL104" s="16">
@@ -14871,11 +15396,11 @@
       <c r="AO104" s="8">
         <v>36</v>
       </c>
-      <c r="AP104" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ104" s="7" t="s">
-        <v>239</v>
+      <c r="AP104" s="33">
+        <v>5.5</v>
+      </c>
+      <c r="AQ104" s="33">
+        <v>3.6</v>
       </c>
       <c r="AR104" s="19">
         <v>45</v>
@@ -14896,7 +15421,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>308</v>
       </c>
@@ -14975,6 +15500,18 @@
       <c r="Z105" s="19">
         <v>5</v>
       </c>
+      <c r="AA105" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB105" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC105" s="12">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
       <c r="AG105" s="6">
         <v>101</v>
       </c>
@@ -14988,7 +15525,7 @@
         <v>94</v>
       </c>
       <c r="AK105" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>308</v>
       </c>
       <c r="AL105" s="16">
@@ -15003,11 +15540,11 @@
       <c r="AO105" s="8">
         <v>66</v>
       </c>
-      <c r="AP105" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AQ105" s="7" t="s">
-        <v>213</v>
+      <c r="AP105" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="AQ105" s="33">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AR105" s="19">
         <v>39</v>
@@ -15028,7 +15565,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>309</v>
       </c>
@@ -15107,6 +15644,18 @@
       <c r="Z106" s="19">
         <v>5</v>
       </c>
+      <c r="AA106" s="12">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AB106" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC106" s="12">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
       <c r="AG106" s="6">
         <v>91</v>
       </c>
@@ -15120,7 +15669,7 @@
         <v>91</v>
       </c>
       <c r="AK106" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>309</v>
       </c>
       <c r="AL106" s="16">
@@ -15135,11 +15684,11 @@
       <c r="AO106" s="8">
         <v>67</v>
       </c>
-      <c r="AP106" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ106" s="7" t="s">
-        <v>216</v>
+      <c r="AP106" s="33">
+        <v>3.2</v>
+      </c>
+      <c r="AQ106" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR106" s="19">
         <v>44</v>
@@ -15160,7 +15709,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>310</v>
       </c>
@@ -15239,6 +15788,18 @@
       <c r="Z107" s="19">
         <v>5</v>
       </c>
+      <c r="AA107" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB107" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC107" s="12">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
       <c r="AG107" s="6">
         <v>101</v>
       </c>
@@ -15252,7 +15813,7 @@
         <v>95</v>
       </c>
       <c r="AK107" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>310</v>
       </c>
       <c r="AL107" s="16">
@@ -15267,11 +15828,11 @@
       <c r="AO107" s="8">
         <v>52</v>
       </c>
-      <c r="AP107" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ107" s="7" t="s">
-        <v>221</v>
+      <c r="AP107" s="33">
+        <v>3.3</v>
+      </c>
+      <c r="AQ107" s="33">
+        <v>3.2</v>
       </c>
       <c r="AR107" s="19">
         <v>50</v>
@@ -15292,7 +15853,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>332</v>
       </c>
@@ -15371,6 +15932,18 @@
       <c r="Z108" s="19">
         <v>3</v>
       </c>
+      <c r="AA108" s="12">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AB108" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC108" s="12">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
       <c r="AG108" s="6">
         <v>91</v>
       </c>
@@ -15384,7 +15957,7 @@
         <v>90</v>
       </c>
       <c r="AK108" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>332</v>
       </c>
       <c r="AL108" s="16">
@@ -15427,7 +16000,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>333</v>
       </c>
@@ -15506,6 +16079,18 @@
       <c r="Z109" s="19">
         <v>15</v>
       </c>
+      <c r="AA109" s="12">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="AB109" s="12">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="AC109" s="12">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
       <c r="AG109" s="6">
         <v>141</v>
       </c>
@@ -15519,7 +16104,7 @@
         <v>115</v>
       </c>
       <c r="AK109" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>333</v>
       </c>
       <c r="AL109" s="16" t="s">
@@ -15562,7 +16147,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>334</v>
       </c>
@@ -15641,6 +16226,18 @@
       <c r="Z110" s="19">
         <v>15</v>
       </c>
+      <c r="AA110" s="12">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="AB110" s="12">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AC110" s="12">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
       <c r="AG110" s="6">
         <v>130</v>
       </c>
@@ -15654,7 +16251,7 @@
         <v>114</v>
       </c>
       <c r="AK110" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>334</v>
       </c>
       <c r="AL110" s="16" t="s">
@@ -15697,7 +16294,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>335</v>
       </c>
@@ -15776,6 +16373,18 @@
       <c r="Z111" s="19">
         <v>5</v>
       </c>
+      <c r="AA111" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB111" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC111" s="12">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
       <c r="AG111" s="6">
         <v>98</v>
       </c>
@@ -15789,7 +16398,7 @@
         <v>94</v>
       </c>
       <c r="AK111" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>335</v>
       </c>
       <c r="AL111" s="16" t="s">
@@ -15832,7 +16441,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>336</v>
       </c>
@@ -15911,6 +16520,18 @@
       <c r="Z112" s="19">
         <v>50</v>
       </c>
+      <c r="AA112" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB112" s="12">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="AC112" s="12">
+        <f t="shared" si="6"/>
+        <v>247</v>
+      </c>
       <c r="AG112" s="6">
         <v>126</v>
       </c>
@@ -15924,7 +16545,7 @@
         <v>115</v>
       </c>
       <c r="AK112" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>336</v>
       </c>
       <c r="AL112" s="16" t="s">
@@ -15967,7 +16588,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="113" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>337</v>
       </c>
@@ -16046,6 +16667,18 @@
       <c r="Z113" s="19">
         <v>20</v>
       </c>
+      <c r="AA113" s="12">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="AB113" s="12">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="AC113" s="12">
+        <f t="shared" si="6"/>
+        <v>463</v>
+      </c>
       <c r="AG113" s="6">
         <v>171</v>
       </c>
@@ -16059,7 +16692,7 @@
         <v>155</v>
       </c>
       <c r="AK113" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>337</v>
       </c>
       <c r="AL113" s="16">
@@ -16102,7 +16735,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>338</v>
       </c>
@@ -16181,6 +16814,18 @@
       <c r="Z114" s="19">
         <v>15</v>
       </c>
+      <c r="AA114" s="12">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="AB114" s="12">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AC114" s="12">
+        <f t="shared" si="6"/>
+        <v>307</v>
+      </c>
       <c r="AG114" s="6">
         <v>121</v>
       </c>
@@ -16194,7 +16839,7 @@
         <v>115</v>
       </c>
       <c r="AK114" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>338</v>
       </c>
       <c r="AL114" s="16" t="s">
@@ -16237,7 +16882,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>339</v>
       </c>
@@ -16316,8 +16961,20 @@
       <c r="Z115" s="19">
         <v>25</v>
       </c>
+      <c r="AA115" s="12">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="AB115" s="12">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AC115" s="12">
+        <f t="shared" si="6"/>
+        <v>233</v>
+      </c>
       <c r="AK115" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>339</v>
       </c>
       <c r="AL115" s="16" t="s">
@@ -16360,7 +17017,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>340</v>
       </c>
@@ -16439,6 +17096,18 @@
       <c r="Z116" s="19">
         <v>5</v>
       </c>
+      <c r="AA116" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB116" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC116" s="12">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
       <c r="AG116" s="6">
         <v>93</v>
       </c>
@@ -16452,7 +17121,7 @@
         <v>90</v>
       </c>
       <c r="AK116" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>340</v>
       </c>
       <c r="AL116" s="16" t="s">
@@ -16495,7 +17164,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>533</v>
       </c>
@@ -16574,6 +17243,18 @@
       <c r="Z117" s="19">
         <v>10</v>
       </c>
+      <c r="AA117" s="12">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="AB117" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC117" s="12">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
       <c r="AG117" s="6">
         <v>116</v>
       </c>
@@ -16587,7 +17268,7 @@
         <v>108</v>
       </c>
       <c r="AK117" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>533</v>
       </c>
       <c r="AL117" s="16" t="s">
@@ -16630,7 +17311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>534</v>
       </c>
@@ -16709,6 +17390,18 @@
       <c r="Z118" s="19">
         <v>55</v>
       </c>
+      <c r="AA118" s="12">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="AB118" s="12">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AC118" s="12">
+        <f t="shared" si="6"/>
+        <v>648</v>
+      </c>
       <c r="AG118" s="6">
         <v>140</v>
       </c>
@@ -16722,7 +17415,7 @@
         <v>142</v>
       </c>
       <c r="AK118" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>534</v>
       </c>
       <c r="AL118" s="16">
@@ -16765,7 +17458,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>535</v>
       </c>
@@ -16844,6 +17537,18 @@
       <c r="Z119" s="19">
         <v>40</v>
       </c>
+      <c r="AA119" s="12">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="AB119" s="12">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AC119" s="12">
+        <f t="shared" si="6"/>
+        <v>215</v>
+      </c>
       <c r="AG119" s="6">
         <v>113</v>
       </c>
@@ -16857,7 +17562,7 @@
         <v>116</v>
       </c>
       <c r="AK119" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>535</v>
       </c>
       <c r="AL119" s="16">
@@ -16900,7 +17605,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>428</v>
       </c>
@@ -16979,6 +17684,18 @@
       <c r="Z120" s="19">
         <v>25</v>
       </c>
+      <c r="AA120" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB120" s="12">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="AC120" s="12">
+        <f t="shared" si="6"/>
+        <v>410</v>
+      </c>
       <c r="AG120" s="6">
         <v>126</v>
       </c>
@@ -16992,7 +17709,7 @@
         <v>150</v>
       </c>
       <c r="AK120" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>428</v>
       </c>
       <c r="AL120" s="16" t="s">
@@ -17035,7 +17752,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>429</v>
       </c>
@@ -17114,6 +17831,18 @@
       <c r="Z121" s="19">
         <v>10</v>
       </c>
+      <c r="AA121" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB121" s="12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="AC121" s="12">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
       <c r="AG121" s="6">
         <v>109</v>
       </c>
@@ -17127,7 +17856,7 @@
         <v>102</v>
       </c>
       <c r="AK121" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>429</v>
       </c>
       <c r="AL121" s="16">
@@ -17170,7 +17899,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="122" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>430</v>
       </c>
@@ -17249,6 +17978,18 @@
       <c r="Z122" s="19">
         <v>10</v>
       </c>
+      <c r="AA122" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB122" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC122" s="12">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
       <c r="AG122" s="6">
         <v>109</v>
       </c>
@@ -17262,7 +18003,7 @@
         <v>97</v>
       </c>
       <c r="AK122" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>430</v>
       </c>
       <c r="AL122" s="16">
@@ -17305,7 +18046,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>403</v>
       </c>
@@ -17384,6 +18125,18 @@
       <c r="Z123" s="19">
         <v>5</v>
       </c>
+      <c r="AA123" s="12">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AB123" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC123" s="12">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
       <c r="AG123" s="6">
         <v>84</v>
       </c>
@@ -17397,7 +18150,7 @@
         <v>87</v>
       </c>
       <c r="AK123" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>403</v>
       </c>
       <c r="AL123" s="16" t="s">
@@ -17440,7 +18193,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>402</v>
       </c>
@@ -17519,6 +18272,18 @@
       <c r="Z124" s="19">
         <v>5</v>
       </c>
+      <c r="AA124" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB124" s="12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC124" s="12">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
       <c r="AG124" s="6">
         <v>98</v>
       </c>
@@ -17532,7 +18297,7 @@
         <v>93</v>
       </c>
       <c r="AK124" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>402</v>
       </c>
       <c r="AL124" s="16">
@@ -17575,7 +18340,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="125" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>401</v>
       </c>
@@ -17654,6 +18419,18 @@
       <c r="Z125" s="19">
         <v>45</v>
       </c>
+      <c r="AA125" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB125" s="12">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AC125" s="12">
+        <f t="shared" si="6"/>
+        <v>313</v>
+      </c>
       <c r="AG125" s="6">
         <v>123</v>
       </c>
@@ -17667,7 +18444,7 @@
         <v>133</v>
       </c>
       <c r="AK125" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>401</v>
       </c>
       <c r="AL125" s="16">
@@ -17710,7 +18487,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>400</v>
       </c>
@@ -17789,6 +18566,18 @@
       <c r="Z126" s="19">
         <v>0</v>
       </c>
+      <c r="AA126" s="12">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AB126" s="12">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AC126" s="12">
+        <f t="shared" si="6"/>
+        <v>298</v>
+      </c>
       <c r="AG126" s="6">
         <v>111</v>
       </c>
@@ -17802,7 +18591,7 @@
         <v>124</v>
       </c>
       <c r="AK126" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="AL126" s="16">
@@ -17845,7 +18634,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="127" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>399</v>
       </c>
@@ -17924,6 +18713,18 @@
       <c r="Z127" s="19">
         <v>25</v>
       </c>
+      <c r="AA127" s="12">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AB127" s="12">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="AC127" s="12">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
       <c r="AG127" s="6">
         <v>112</v>
       </c>
@@ -17937,7 +18738,7 @@
         <v>120</v>
       </c>
       <c r="AK127" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>399</v>
       </c>
       <c r="AL127" s="16" t="s">
@@ -17980,7 +18781,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>398</v>
       </c>
@@ -18059,6 +18860,18 @@
       <c r="Z128" s="19">
         <v>35</v>
       </c>
+      <c r="AA128" s="12">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="AB128" s="12">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="AC128" s="12">
+        <f t="shared" si="6"/>
+        <v>471</v>
+      </c>
       <c r="AG128" s="6">
         <v>164</v>
       </c>
@@ -18072,7 +18885,7 @@
         <v>160</v>
       </c>
       <c r="AK128" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>398</v>
       </c>
       <c r="AL128" s="16" t="s">
@@ -18115,7 +18928,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="129" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>391</v>
       </c>
@@ -18194,6 +19007,18 @@
       <c r="Z129" s="19">
         <v>0</v>
       </c>
+      <c r="AA129" s="12">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="AB129" s="12">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AC129" s="12">
+        <f t="shared" si="6"/>
+        <v>302</v>
+      </c>
       <c r="AG129" s="6">
         <v>106</v>
       </c>
@@ -18207,7 +19032,7 @@
         <v>121</v>
       </c>
       <c r="AK129" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>391</v>
       </c>
       <c r="AL129" s="16" t="s">
@@ -18250,7 +19075,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="130" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>397</v>
       </c>
@@ -18329,6 +19154,18 @@
       <c r="Z130" s="19">
         <v>15</v>
       </c>
+      <c r="AA130" s="12">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="AB130" s="12">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="AC130" s="12">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
       <c r="AG130" s="6">
         <v>126</v>
       </c>
@@ -18342,7 +19179,7 @@
         <v>117</v>
       </c>
       <c r="AK130" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>397</v>
       </c>
       <c r="AL130" s="16" t="s">
@@ -18385,7 +19222,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>396</v>
       </c>
@@ -18464,6 +19301,18 @@
       <c r="Z131" s="19">
         <v>35</v>
       </c>
+      <c r="AA131" s="12">
+        <f t="shared" ref="AA131:AA189" si="8">SUM(C131:D131)</f>
+        <v>20</v>
+      </c>
+      <c r="AB131" s="12">
+        <f t="shared" ref="AB131:AB189" si="9">SUM(E131:I131)</f>
+        <v>40</v>
+      </c>
+      <c r="AC131" s="12">
+        <f t="shared" ref="AC131:AC189" si="10">SUM(J131:Z131)</f>
+        <v>400</v>
+      </c>
       <c r="AG131" s="6">
         <v>124</v>
       </c>
@@ -18477,7 +19326,7 @@
         <v>137</v>
       </c>
       <c r="AK131" s="5">
-        <f t="shared" ref="AK131:AK194" si="5">A131</f>
+        <f t="shared" ref="AK131:AK194" si="11">A131</f>
         <v>396</v>
       </c>
       <c r="AL131" s="16">
@@ -18520,7 +19369,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>395</v>
       </c>
@@ -18599,6 +19448,18 @@
       <c r="Z132" s="19">
         <v>35</v>
       </c>
+      <c r="AA132" s="12">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="AB132" s="12">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="AC132" s="12">
+        <f t="shared" si="10"/>
+        <v>223</v>
+      </c>
       <c r="AG132" s="6">
         <v>104</v>
       </c>
@@ -18612,7 +19473,7 @@
         <v>107</v>
       </c>
       <c r="AK132" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>395</v>
       </c>
       <c r="AL132" s="16" t="s">
@@ -18655,7 +19516,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>394</v>
       </c>
@@ -18734,6 +19595,18 @@
       <c r="Z133" s="19">
         <v>25</v>
       </c>
+      <c r="AA133" s="12">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="AB133" s="12">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="AC133" s="12">
+        <f t="shared" si="10"/>
+        <v>202</v>
+      </c>
       <c r="AG133" s="6">
         <v>123</v>
       </c>
@@ -18747,7 +19620,7 @@
         <v>118</v>
       </c>
       <c r="AK133" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>394</v>
       </c>
       <c r="AL133" s="16" t="s">
@@ -18790,7 +19663,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="134" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>393</v>
       </c>
@@ -18869,6 +19742,18 @@
       <c r="Z134" s="19">
         <v>5</v>
       </c>
+      <c r="AA134" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB134" s="12">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AC134" s="12">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
       <c r="AG134" s="6">
         <v>101</v>
       </c>
@@ -18882,7 +19767,7 @@
         <v>96</v>
       </c>
       <c r="AK134" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>393</v>
       </c>
       <c r="AL134" s="16" t="s">
@@ -18925,7 +19810,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="135" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>392</v>
       </c>
@@ -19004,6 +19889,18 @@
       <c r="Z135" s="19">
         <v>35</v>
       </c>
+      <c r="AA135" s="12">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="AB135" s="12">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="AC135" s="12">
+        <f t="shared" si="10"/>
+        <v>287</v>
+      </c>
       <c r="AG135" s="6">
         <v>125</v>
       </c>
@@ -19017,7 +19914,7 @@
         <v>126</v>
       </c>
       <c r="AK135" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>392</v>
       </c>
       <c r="AL135" s="16">
@@ -19060,7 +19957,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>526</v>
       </c>
@@ -19139,6 +20036,18 @@
       <c r="Z136" s="19">
         <v>30</v>
       </c>
+      <c r="AA136" s="12">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="AB136" s="12">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="AC136" s="12">
+        <f t="shared" si="10"/>
+        <v>251</v>
+      </c>
       <c r="AG136" s="6">
         <v>131</v>
       </c>
@@ -19152,7 +20061,7 @@
         <v>129</v>
       </c>
       <c r="AK136" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>526</v>
       </c>
       <c r="AL136" s="16">
@@ -19195,7 +20104,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="137" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>539</v>
       </c>
@@ -19274,6 +20183,18 @@
       <c r="Z137" s="19">
         <v>5</v>
       </c>
+      <c r="AA137" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB137" s="12">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AC137" s="12">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
       <c r="AG137" s="6">
         <v>109</v>
       </c>
@@ -19287,7 +20208,7 @@
         <v>96</v>
       </c>
       <c r="AK137" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>539</v>
       </c>
       <c r="AL137" s="16">
@@ -19330,7 +20251,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>540</v>
       </c>
@@ -19409,6 +20330,18 @@
       <c r="Z138" s="19">
         <v>0</v>
       </c>
+      <c r="AA138" s="12">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AB138" s="12">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AC138" s="12">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
       <c r="AG138" s="6">
         <v>87</v>
       </c>
@@ -19422,7 +20355,7 @@
         <v>89</v>
       </c>
       <c r="AK138" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>540</v>
       </c>
       <c r="AL138" s="16">
@@ -19465,7 +20398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>542</v>
       </c>
@@ -19544,6 +20477,18 @@
       <c r="Z139" s="19">
         <v>35</v>
       </c>
+      <c r="AA139" s="12">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="AB139" s="12">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="AC139" s="12">
+        <f t="shared" si="10"/>
+        <v>353</v>
+      </c>
       <c r="AG139" s="6">
         <v>128</v>
       </c>
@@ -19557,7 +20502,7 @@
         <v>132</v>
       </c>
       <c r="AK139" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>542</v>
       </c>
       <c r="AL139" s="16" t="s">
@@ -19600,7 +20545,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>545</v>
       </c>
@@ -19679,6 +20624,18 @@
       <c r="Z140" s="19">
         <v>45</v>
       </c>
+      <c r="AA140" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB140" s="12">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="AC140" s="12">
+        <f t="shared" si="10"/>
+        <v>408</v>
+      </c>
       <c r="AG140" s="6">
         <v>122</v>
       </c>
@@ -19692,7 +20649,7 @@
         <v>138</v>
       </c>
       <c r="AK140" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>545</v>
       </c>
       <c r="AL140" s="16" t="s">
@@ -19735,7 +20692,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="141" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>548</v>
       </c>
@@ -19814,6 +20771,18 @@
       <c r="Z141" s="19">
         <v>35</v>
       </c>
+      <c r="AA141" s="12">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AB141" s="12">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="AC141" s="12">
+        <f t="shared" si="10"/>
+        <v>377</v>
+      </c>
       <c r="AG141" s="6">
         <v>127</v>
       </c>
@@ -19827,7 +20796,7 @@
         <v>134</v>
       </c>
       <c r="AK141" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>548</v>
       </c>
       <c r="AL141" s="16">
@@ -19870,7 +20839,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="142" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>560</v>
       </c>
@@ -19949,6 +20918,18 @@
       <c r="Z142" s="19">
         <v>40</v>
       </c>
+      <c r="AA142" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB142" s="12">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="AC142" s="12">
+        <f t="shared" si="10"/>
+        <v>384</v>
+      </c>
       <c r="AG142" s="6">
         <v>114</v>
       </c>
@@ -19962,7 +20943,7 @@
         <v>120</v>
       </c>
       <c r="AK142" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>560</v>
       </c>
       <c r="AL142" s="16" t="s">
@@ -20005,7 +20986,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>570</v>
       </c>
@@ -20084,6 +21065,18 @@
       <c r="Z143" s="19">
         <v>35</v>
       </c>
+      <c r="AA143" s="12">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AB143" s="12">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="AC143" s="12">
+        <f t="shared" si="10"/>
+        <v>188</v>
+      </c>
       <c r="AG143" s="6">
         <v>128</v>
       </c>
@@ -20097,7 +21090,7 @@
         <v>118</v>
       </c>
       <c r="AK143" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>570</v>
       </c>
       <c r="AL143" s="16">
@@ -20140,7 +21133,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="144" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>571</v>
       </c>
@@ -20219,6 +21212,18 @@
       <c r="Z144" s="19">
         <v>20</v>
       </c>
+      <c r="AA144" s="12">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AB144" s="12">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AC144" s="12">
+        <f t="shared" si="10"/>
+        <v>142</v>
+      </c>
       <c r="AG144" s="6">
         <v>96</v>
       </c>
@@ -20232,7 +21237,7 @@
         <v>98</v>
       </c>
       <c r="AK144" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>571</v>
       </c>
       <c r="AL144" s="16">
@@ -20275,7 +21280,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="145" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>573</v>
       </c>
@@ -20354,6 +21359,18 @@
       <c r="Z145" s="19">
         <v>35</v>
       </c>
+      <c r="AA145" s="12">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="AB145" s="12">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="AC145" s="12">
+        <f t="shared" si="10"/>
+        <v>178</v>
+      </c>
       <c r="AG145" s="6">
         <v>146</v>
       </c>
@@ -20367,7 +21384,7 @@
         <v>118</v>
       </c>
       <c r="AK145" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>573</v>
       </c>
       <c r="AL145" s="16">
@@ -20410,7 +21427,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="146" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>575</v>
       </c>
@@ -20489,6 +21506,18 @@
       <c r="Z146" s="19">
         <v>35</v>
       </c>
+      <c r="AA146" s="12">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="AB146" s="12">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AC146" s="12">
+        <f t="shared" si="10"/>
+        <v>416</v>
+      </c>
       <c r="AG146" s="6">
         <v>149</v>
       </c>
@@ -20502,7 +21531,7 @@
         <v>145</v>
       </c>
       <c r="AK146" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>575</v>
       </c>
       <c r="AL146" s="16">
@@ -20545,7 +21574,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="147" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>451</v>
       </c>
@@ -20624,6 +21653,18 @@
       <c r="Z147" s="19">
         <v>20</v>
       </c>
+      <c r="AA147" s="12">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AB147" s="12">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="AC147" s="12">
+        <f t="shared" si="10"/>
+        <v>95</v>
+      </c>
       <c r="AG147" s="6">
         <v>94</v>
       </c>
@@ -20637,7 +21678,7 @@
         <v>90</v>
       </c>
       <c r="AK147" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>451</v>
       </c>
       <c r="AL147" s="16">
@@ -20680,7 +21721,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="148" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>452</v>
       </c>
@@ -20759,6 +21800,18 @@
       <c r="Z148" s="19">
         <v>45</v>
       </c>
+      <c r="AA148" s="12">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="AB148" s="12">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="AC148" s="12">
+        <f t="shared" si="10"/>
+        <v>272</v>
+      </c>
       <c r="AG148" s="6">
         <v>149</v>
       </c>
@@ -20772,7 +21825,7 @@
         <v>117</v>
       </c>
       <c r="AK148" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>452</v>
       </c>
       <c r="AL148" s="16" t="s">
@@ -20815,7 +21868,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="149" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>453</v>
       </c>
@@ -20894,6 +21947,18 @@
       <c r="Z149" s="19">
         <v>55</v>
       </c>
+      <c r="AA149" s="12">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="AB149" s="12">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="AC149" s="12">
+        <f t="shared" si="10"/>
+        <v>610</v>
+      </c>
       <c r="AG149" s="6">
         <v>156</v>
       </c>
@@ -20907,7 +21972,7 @@
         <v>160</v>
       </c>
       <c r="AK149" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>453</v>
       </c>
       <c r="AL149" s="16" t="s">
@@ -20950,7 +22015,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="150" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>454</v>
       </c>
@@ -21029,6 +22094,18 @@
       <c r="Z150" s="19">
         <v>15</v>
       </c>
+      <c r="AA150" s="12">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AB150" s="12">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="AC150" s="12">
+        <f t="shared" si="10"/>
+        <v>135</v>
+      </c>
       <c r="AG150" s="6">
         <v>126</v>
       </c>
@@ -21042,7 +22119,7 @@
         <v>103</v>
       </c>
       <c r="AK150" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>454</v>
       </c>
       <c r="AL150" s="16">
@@ -21085,7 +22162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>455</v>
       </c>
@@ -21164,6 +22241,18 @@
       <c r="Z151" s="19">
         <v>40</v>
       </c>
+      <c r="AA151" s="12">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="AB151" s="12">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="AC151" s="12">
+        <f t="shared" si="10"/>
+        <v>401</v>
+      </c>
       <c r="AG151" s="6">
         <v>122</v>
       </c>
@@ -21177,7 +22266,7 @@
         <v>137</v>
       </c>
       <c r="AK151" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>455</v>
       </c>
       <c r="AL151" s="16">
@@ -21220,7 +22309,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="152" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>456</v>
       </c>
@@ -21299,6 +22388,18 @@
       <c r="Z152" s="19">
         <v>60</v>
       </c>
+      <c r="AA152" s="12">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="AB152" s="12">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="AC152" s="12">
+        <f t="shared" si="10"/>
+        <v>359</v>
+      </c>
       <c r="AG152" s="6">
         <v>107</v>
       </c>
@@ -21312,7 +22413,7 @@
         <v>112</v>
       </c>
       <c r="AK152" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>456</v>
       </c>
       <c r="AL152" s="16" t="s">
@@ -21355,7 +22456,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>457</v>
       </c>
@@ -21434,6 +22535,18 @@
       <c r="Z153" s="19">
         <v>30</v>
       </c>
+      <c r="AA153" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB153" s="12">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="AC153" s="12">
+        <f t="shared" si="10"/>
+        <v>313</v>
+      </c>
       <c r="AG153" s="6">
         <v>119</v>
       </c>
@@ -21447,7 +22560,7 @@
         <v>114</v>
       </c>
       <c r="AK153" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>457</v>
       </c>
       <c r="AL153" s="16">
@@ -21490,7 +22603,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="154" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>458</v>
       </c>
@@ -21569,6 +22682,18 @@
       <c r="Z154" s="19">
         <v>40</v>
       </c>
+      <c r="AA154" s="12">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AB154" s="12">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="AC154" s="12">
+        <f t="shared" si="10"/>
+        <v>317</v>
+      </c>
       <c r="AG154" s="6">
         <v>138</v>
       </c>
@@ -21582,7 +22707,7 @@
         <v>128</v>
       </c>
       <c r="AK154" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>458</v>
       </c>
       <c r="AL154" s="16">
@@ -21625,7 +22750,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="155" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>459</v>
       </c>
@@ -21704,6 +22829,18 @@
       <c r="Z155" s="19">
         <v>45</v>
       </c>
+      <c r="AA155" s="12">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AB155" s="12">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="AC155" s="12">
+        <f t="shared" si="10"/>
+        <v>365</v>
+      </c>
       <c r="AG155" s="6">
         <v>134</v>
       </c>
@@ -21717,7 +22854,7 @@
         <v>151</v>
       </c>
       <c r="AK155" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>459</v>
       </c>
       <c r="AL155" s="16" t="s">
@@ -21760,7 +22897,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>460</v>
       </c>
@@ -21839,6 +22976,18 @@
       <c r="Z156" s="19">
         <v>10</v>
       </c>
+      <c r="AA156" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB156" s="12">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AC156" s="12">
+        <f t="shared" si="10"/>
+        <v>65</v>
+      </c>
       <c r="AG156" s="6">
         <v>109</v>
       </c>
@@ -21852,7 +23001,7 @@
         <v>100</v>
       </c>
       <c r="AK156" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>460</v>
       </c>
       <c r="AL156" s="16">
@@ -21867,11 +23016,11 @@
       <c r="AO156" s="8">
         <v>27</v>
       </c>
-      <c r="AP156" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ156" s="7" t="s">
-        <v>214</v>
+      <c r="AP156" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AQ156" s="33">
+        <v>6.4</v>
       </c>
       <c r="AR156" s="19">
         <v>37</v>
@@ -21895,7 +23044,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="157" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>461</v>
       </c>
@@ -21974,6 +23123,18 @@
       <c r="Z157" s="19">
         <v>40</v>
       </c>
+      <c r="AA157" s="12">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AB157" s="12">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="AC157" s="12">
+        <f t="shared" si="10"/>
+        <v>312</v>
+      </c>
       <c r="AG157" s="6">
         <v>130</v>
       </c>
@@ -21987,7 +23148,7 @@
         <v>135</v>
       </c>
       <c r="AK157" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>461</v>
       </c>
       <c r="AL157" s="16">
@@ -22002,11 +23163,11 @@
       <c r="AO157" s="8">
         <v>41</v>
       </c>
-      <c r="AP157" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="AQ157" s="7" t="s">
-        <v>216</v>
+      <c r="AP157" s="33">
+        <v>5.3</v>
+      </c>
+      <c r="AQ157" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR157" s="19">
         <v>47</v>
@@ -22030,7 +23191,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="158" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>462</v>
       </c>
@@ -22109,6 +23270,18 @@
       <c r="Z158" s="19">
         <v>45</v>
       </c>
+      <c r="AA158" s="12">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="AB158" s="12">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="AC158" s="12">
+        <f t="shared" si="10"/>
+        <v>367</v>
+      </c>
       <c r="AG158" s="6">
         <v>133</v>
       </c>
@@ -22122,7 +23295,7 @@
         <v>137</v>
       </c>
       <c r="AK158" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>462</v>
       </c>
       <c r="AL158" s="16">
@@ -22137,11 +23310,11 @@
       <c r="AO158" s="8">
         <v>61</v>
       </c>
-      <c r="AP158" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="AQ158" s="7" t="s">
-        <v>216</v>
+      <c r="AP158" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="AQ158" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR158" s="19">
         <v>42</v>
@@ -22165,7 +23338,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="159" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>481</v>
       </c>
@@ -22244,6 +23417,18 @@
       <c r="Z159" s="19">
         <v>20</v>
       </c>
+      <c r="AA159" s="12">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="AB159" s="12">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="AC159" s="12">
+        <f t="shared" si="10"/>
+        <v>225</v>
+      </c>
       <c r="AG159" s="6">
         <v>137</v>
       </c>
@@ -22257,7 +23442,7 @@
         <v>130</v>
       </c>
       <c r="AK159" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>481</v>
       </c>
       <c r="AL159" s="16">
@@ -22272,11 +23457,11 @@
       <c r="AO159" s="8">
         <v>35</v>
       </c>
-      <c r="AP159" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ159" s="7" t="s">
-        <v>218</v>
+      <c r="AP159" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AQ159" s="33">
+        <v>4.5</v>
       </c>
       <c r="AR159" s="19">
         <v>47</v>
@@ -22300,7 +23485,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="160" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>121</v>
       </c>
@@ -22379,6 +23564,18 @@
       <c r="Z160" s="19">
         <v>60</v>
       </c>
+      <c r="AA160" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB160" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC160" s="12">
+        <f t="shared" si="10"/>
+        <v>357</v>
+      </c>
       <c r="AG160" s="6">
         <v>143</v>
       </c>
@@ -22392,7 +23589,7 @@
         <v>125</v>
       </c>
       <c r="AK160" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
       <c r="AL160" s="16" t="s">
@@ -22407,11 +23604,11 @@
       <c r="AO160" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AP160" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="AQ160" s="7" t="s">
-        <v>220</v>
+      <c r="AP160" s="33">
+        <v>4.3</v>
+      </c>
+      <c r="AQ160" s="33">
+        <v>3.4</v>
       </c>
       <c r="AR160" s="19" t="s">
         <v>31</v>
@@ -22435,7 +23632,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="161" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>122</v>
       </c>
@@ -22514,6 +23711,18 @@
       <c r="Z161" s="19">
         <v>60</v>
       </c>
+      <c r="AA161" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB161" s="12">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="AC161" s="12">
+        <f t="shared" si="10"/>
+        <v>556</v>
+      </c>
       <c r="AG161" s="6">
         <v>134</v>
       </c>
@@ -22527,7 +23736,7 @@
         <v>141</v>
       </c>
       <c r="AK161" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>122</v>
       </c>
       <c r="AL161" s="16" t="s">
@@ -22542,11 +23751,11 @@
       <c r="AO161" s="8">
         <v>111</v>
       </c>
-      <c r="AP161" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AQ161" s="7" t="s">
-        <v>220</v>
+      <c r="AP161" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="AQ161" s="33">
+        <v>3.4</v>
       </c>
       <c r="AR161" s="19">
         <v>69</v>
@@ -22570,7 +23779,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="162" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>123</v>
       </c>
@@ -22649,6 +23858,18 @@
       <c r="Z162" s="19">
         <v>40</v>
       </c>
+      <c r="AA162" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB162" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC162" s="12">
+        <f t="shared" si="10"/>
+        <v>252</v>
+      </c>
       <c r="AG162" s="6">
         <v>137</v>
       </c>
@@ -22662,7 +23883,7 @@
         <v>117</v>
       </c>
       <c r="AK162" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>123</v>
       </c>
       <c r="AL162" s="16">
@@ -22677,11 +23898,11 @@
       <c r="AO162" s="8">
         <v>95</v>
       </c>
-      <c r="AP162" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ162" s="7" t="s">
-        <v>222</v>
+      <c r="AP162" s="33">
+        <v>3.2</v>
+      </c>
+      <c r="AQ162" s="33">
+        <v>2.1</v>
       </c>
       <c r="AR162" s="19">
         <v>43</v>
@@ -22705,7 +23926,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>124</v>
       </c>
@@ -22784,6 +24005,18 @@
       <c r="Z163" s="19">
         <v>30</v>
       </c>
+      <c r="AA163" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB163" s="12">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="AC163" s="12">
+        <f t="shared" si="10"/>
+        <v>390</v>
+      </c>
       <c r="AG163" s="6">
         <v>169</v>
       </c>
@@ -22797,7 +24030,7 @@
         <v>145</v>
       </c>
       <c r="AK163" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>124</v>
       </c>
       <c r="AL163" s="16">
@@ -22812,11 +24045,11 @@
       <c r="AO163" s="8">
         <v>55</v>
       </c>
-      <c r="AP163" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ163" s="7" t="s">
-        <v>216</v>
+      <c r="AP163" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AQ163" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR163" s="19">
         <v>40</v>
@@ -22840,7 +24073,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="164" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
         <v>125</v>
       </c>
@@ -22919,6 +24152,18 @@
       <c r="Z164" s="19">
         <v>45</v>
       </c>
+      <c r="AA164" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB164" s="12">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="AC164" s="12">
+        <f t="shared" si="10"/>
+        <v>343</v>
+      </c>
       <c r="AG164" s="6">
         <v>136</v>
       </c>
@@ -22932,7 +24177,7 @@
         <v>123</v>
       </c>
       <c r="AK164" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
       <c r="AL164" s="16">
@@ -22947,11 +24192,11 @@
       <c r="AO164" s="8">
         <v>67</v>
       </c>
-      <c r="AP164" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ164" s="7" t="s">
-        <v>216</v>
+      <c r="AP164" s="33">
+        <v>3.2</v>
+      </c>
+      <c r="AQ164" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR164" s="19">
         <v>59</v>
@@ -22975,7 +24220,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="165" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
         <v>151</v>
       </c>
@@ -23054,6 +24299,18 @@
       <c r="Z165" s="19" t="s">
         <v>31</v>
       </c>
+      <c r="AA165" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB165" s="12">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="AC165" s="12">
+        <f t="shared" si="10"/>
+        <v>288</v>
+      </c>
       <c r="AG165" s="6">
         <v>145</v>
       </c>
@@ -23067,7 +24324,7 @@
         <v>120</v>
       </c>
       <c r="AK165" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>151</v>
       </c>
       <c r="AL165" s="16">
@@ -23082,11 +24339,11 @@
       <c r="AO165" s="8">
         <v>57</v>
       </c>
-      <c r="AP165" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AQ165" s="7" t="s">
-        <v>223</v>
+      <c r="AP165" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="AQ165" s="33">
+        <v>5.6</v>
       </c>
       <c r="AR165" s="19">
         <v>36</v>
@@ -23110,7 +24367,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="166" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>152</v>
       </c>
@@ -23172,7 +24429,7 @@
         <v>15</v>
       </c>
       <c r="U166" s="8" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="V166" s="8">
         <v>50</v>
@@ -23184,10 +24441,22 @@
         <v>1</v>
       </c>
       <c r="Y166" s="19" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="Z166" s="19">
         <v>20</v>
+      </c>
+      <c r="AA166" s="12">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="AB166" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC166" s="12">
+        <f t="shared" si="10"/>
+        <v>246</v>
       </c>
       <c r="AG166" s="6">
         <v>137</v>
@@ -23202,7 +24471,7 @@
         <v>127</v>
       </c>
       <c r="AK166" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>152</v>
       </c>
       <c r="AL166" s="16">
@@ -23217,11 +24486,11 @@
       <c r="AO166" s="8">
         <v>114</v>
       </c>
-      <c r="AP166" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ166" s="7" t="s">
-        <v>224</v>
+      <c r="AP166" s="33">
+        <v>3.2</v>
+      </c>
+      <c r="AQ166" s="33">
+        <v>2.2000000000000002</v>
       </c>
       <c r="AR166" s="19">
         <v>44</v>
@@ -23245,7 +24514,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="167" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>153</v>
       </c>
@@ -23295,7 +24564,7 @@
         <v>0</v>
       </c>
       <c r="Q167" s="16" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="R167" s="16" t="s">
         <v>31</v>
@@ -23324,6 +24593,18 @@
       <c r="Z167" s="19">
         <v>30</v>
       </c>
+      <c r="AA167" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB167" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC167" s="12">
+        <f t="shared" si="10"/>
+        <v>240</v>
+      </c>
       <c r="AG167" s="6">
         <v>118</v>
       </c>
@@ -23337,7 +24618,7 @@
         <v>129</v>
       </c>
       <c r="AK167" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>153</v>
       </c>
       <c r="AL167" s="16">
@@ -23352,11 +24633,11 @@
       <c r="AO167" s="8">
         <v>41</v>
       </c>
-      <c r="AP167" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ167" s="7" t="s">
-        <v>216</v>
+      <c r="AP167" s="33">
+        <v>5.5</v>
+      </c>
+      <c r="AQ167" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR167" s="19">
         <v>46</v>
@@ -23380,7 +24661,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="168" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
         <v>100</v>
       </c>
@@ -23459,6 +24740,18 @@
       <c r="Z168" s="19">
         <v>5</v>
       </c>
+      <c r="AA168" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB168" s="12">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AC168" s="12">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
       <c r="AG168" s="6">
         <v>98</v>
       </c>
@@ -23472,7 +24765,7 @@
         <v>94</v>
       </c>
       <c r="AK168" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="AL168" s="16">
@@ -23487,11 +24780,11 @@
       <c r="AO168" s="8">
         <v>29</v>
       </c>
-      <c r="AP168" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ168" s="7" t="s">
-        <v>213</v>
+      <c r="AP168" s="33">
+        <v>3.4</v>
+      </c>
+      <c r="AQ168" s="33">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AR168" s="19">
         <v>43</v>
@@ -23515,7 +24808,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="169" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
         <v>101</v>
       </c>
@@ -23594,6 +24887,18 @@
       <c r="Z169" s="19">
         <v>55</v>
       </c>
+      <c r="AA169" s="12">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AB169" s="12">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="AC169" s="12">
+        <f t="shared" si="10"/>
+        <v>455</v>
+      </c>
       <c r="AG169" s="6">
         <v>132</v>
       </c>
@@ -23607,7 +24912,7 @@
         <v>135</v>
       </c>
       <c r="AK169" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
       <c r="AL169" s="16">
@@ -23622,11 +24927,11 @@
       <c r="AO169" s="8">
         <v>75</v>
       </c>
-      <c r="AP169" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ169" s="7" t="s">
-        <v>224</v>
+      <c r="AP169" s="33">
+        <v>3.2</v>
+      </c>
+      <c r="AQ169" s="33">
+        <v>2.2000000000000002</v>
       </c>
       <c r="AR169" s="19">
         <v>44</v>
@@ -23650,7 +24955,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="170" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
         <v>426</v>
       </c>
@@ -23729,6 +25034,18 @@
       <c r="Z170" s="19">
         <v>45</v>
       </c>
+      <c r="AA170" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB170" s="12">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="AC170" s="12">
+        <f t="shared" si="10"/>
+        <v>383</v>
+      </c>
       <c r="AG170" s="6">
         <v>116</v>
       </c>
@@ -23742,7 +25059,7 @@
         <v>132</v>
       </c>
       <c r="AK170" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>426</v>
       </c>
       <c r="AL170" s="16">
@@ -23757,11 +25074,11 @@
       <c r="AO170" s="8">
         <v>36</v>
       </c>
-      <c r="AP170" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AQ170" s="7" t="s">
-        <v>216</v>
+      <c r="AP170" s="33">
+        <v>4.5</v>
+      </c>
+      <c r="AQ170" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR170" s="19">
         <v>41</v>
@@ -23782,7 +25099,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="171" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
         <v>500</v>
       </c>
@@ -23790,7 +25107,7 @@
         <v>31</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="D171" s="6">
         <v>0</v>
@@ -23861,6 +25178,18 @@
       <c r="Z171" s="19">
         <v>33</v>
       </c>
+      <c r="AA171" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB171" s="12">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AC171" s="12">
+        <f t="shared" si="10"/>
+        <v>253</v>
+      </c>
       <c r="AG171" s="6">
         <v>100</v>
       </c>
@@ -23874,7 +25203,7 @@
         <v>92</v>
       </c>
       <c r="AK171" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>500</v>
       </c>
       <c r="AL171" s="16">
@@ -23914,7 +25243,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="172" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
         <v>520</v>
       </c>
@@ -23949,7 +25278,7 @@
         <v>10</v>
       </c>
       <c r="L172" s="11" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="M172" s="11">
         <v>0</v>
@@ -23961,7 +25290,7 @@
         <v>15</v>
       </c>
       <c r="P172" s="16" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="Q172" s="16">
         <v>0</v>
@@ -23993,6 +25322,18 @@
       <c r="Z172" s="19">
         <v>15</v>
       </c>
+      <c r="AA172" s="12">
+        <f t="shared" si="8"/>
+        <v>25.5</v>
+      </c>
+      <c r="AB172" s="12">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="AC172" s="12">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
       <c r="AG172" s="6">
         <v>120</v>
       </c>
@@ -24006,7 +25347,7 @@
         <v>109</v>
       </c>
       <c r="AK172" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>520</v>
       </c>
       <c r="AL172" s="16">
@@ -24046,7 +25387,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="173" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
         <v>521</v>
       </c>
@@ -24125,6 +25466,18 @@
       <c r="Z173" s="19">
         <v>10</v>
       </c>
+      <c r="AA173" s="12">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="AB173" s="12">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AC173" s="12">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
       <c r="AG173" s="6">
         <v>119</v>
       </c>
@@ -24138,7 +25491,7 @@
         <v>103</v>
       </c>
       <c r="AK173" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>521</v>
       </c>
       <c r="AL173" s="16">
@@ -24153,11 +25506,11 @@
       <c r="AO173" s="8">
         <v>98</v>
       </c>
-      <c r="AP173" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ173" s="7" t="s">
-        <v>216</v>
+      <c r="AP173" s="33">
+        <v>3.4</v>
+      </c>
+      <c r="AQ173" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR173" s="19">
         <v>54</v>
@@ -24178,7 +25531,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="174" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
         <v>525</v>
       </c>
@@ -24207,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="J174" s="11" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="K174" s="11" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="L174" s="11">
         <v>0</v>
@@ -24256,6 +25609,18 @@
       </c>
       <c r="Z174" s="19">
         <v>10</v>
+      </c>
+      <c r="AA174" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB174" s="12">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AC174" s="12">
+        <f t="shared" si="10"/>
+        <v>30</v>
       </c>
       <c r="AG174" s="6">
         <v>109</v>
@@ -24270,7 +25635,7 @@
         <v>95</v>
       </c>
       <c r="AK174" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>525</v>
       </c>
       <c r="AL174" s="16">
@@ -24285,11 +25650,11 @@
       <c r="AO174" s="8">
         <v>30</v>
       </c>
-      <c r="AP174" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ174" s="7" t="s">
-        <v>215</v>
+      <c r="AP174" s="33">
+        <v>5.5</v>
+      </c>
+      <c r="AQ174" s="33">
+        <v>5.3</v>
       </c>
       <c r="AR174" s="19">
         <v>45</v>
@@ -24310,7 +25675,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="175" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
         <v>527</v>
       </c>
@@ -24389,6 +25754,18 @@
       <c r="Z175" s="19">
         <v>45</v>
       </c>
+      <c r="AA175" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB175" s="12">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="AC175" s="12">
+        <f t="shared" si="10"/>
+        <v>372</v>
+      </c>
       <c r="AG175" s="6">
         <v>125</v>
       </c>
@@ -24402,7 +25779,7 @@
         <v>135</v>
       </c>
       <c r="AK175" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>527</v>
       </c>
       <c r="AL175" s="16">
@@ -24417,11 +25794,11 @@
       <c r="AO175" s="8">
         <v>40</v>
       </c>
-      <c r="AP175" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="AQ175" s="7" t="s">
-        <v>220</v>
+      <c r="AP175" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="AQ175" s="33">
+        <v>3.4</v>
       </c>
       <c r="AR175" s="19">
         <v>72</v>
@@ -24442,7 +25819,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="176" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
         <v>528</v>
       </c>
@@ -24521,6 +25898,18 @@
       <c r="Z176" s="19">
         <v>50</v>
       </c>
+      <c r="AA176" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB176" s="12">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="AC176" s="12">
+        <f t="shared" si="10"/>
+        <v>413</v>
+      </c>
       <c r="AG176" s="6">
         <v>128</v>
       </c>
@@ -24534,7 +25923,7 @@
         <v>140</v>
       </c>
       <c r="AK176" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>528</v>
       </c>
       <c r="AL176" s="16">
@@ -24549,11 +25938,11 @@
       <c r="AO176" s="8">
         <v>120</v>
       </c>
-      <c r="AP176" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ176" s="7" t="s">
-        <v>221</v>
+      <c r="AP176" s="33">
+        <v>3.3</v>
+      </c>
+      <c r="AQ176" s="33">
+        <v>3.2</v>
       </c>
       <c r="AR176" s="19">
         <v>41</v>
@@ -24574,7 +25963,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="177" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
         <v>530</v>
       </c>
@@ -24642,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="W177" s="8" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="X177" s="19">
         <v>0</v>
@@ -24652,6 +26041,18 @@
       </c>
       <c r="Z177" s="19">
         <v>10</v>
+      </c>
+      <c r="AA177" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB177" s="12">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AC177" s="12">
+        <f t="shared" si="10"/>
+        <v>60</v>
       </c>
       <c r="AG177" s="6">
         <v>103</v>
@@ -24666,7 +26067,7 @@
         <v>101</v>
       </c>
       <c r="AK177" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>530</v>
       </c>
       <c r="AL177" s="16">
@@ -24681,11 +26082,11 @@
       <c r="AO177" s="8">
         <v>33</v>
       </c>
-      <c r="AP177" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ177" s="7" t="s">
-        <v>213</v>
+      <c r="AP177" s="33">
+        <v>5.5</v>
+      </c>
+      <c r="AQ177" s="33">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AR177" s="19">
         <v>34</v>
@@ -24700,13 +26101,13 @@
         <v>46</v>
       </c>
       <c r="AY177" s="8" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="AZ177" s="23">
         <v>72</v>
       </c>
     </row>
-    <row r="178" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
         <v>531</v>
       </c>
@@ -24785,6 +26186,18 @@
       <c r="Z178" s="19">
         <v>5</v>
       </c>
+      <c r="AA178" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB178" s="12">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AC178" s="12">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
       <c r="AG178" s="6">
         <v>18</v>
       </c>
@@ -24798,7 +26211,7 @@
         <v>59</v>
       </c>
       <c r="AK178" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>531</v>
       </c>
       <c r="AL178" s="16">
@@ -24813,11 +26226,11 @@
       <c r="AO178" s="8">
         <v>33</v>
       </c>
-      <c r="AP178" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="AQ178" s="7" t="s">
-        <v>216</v>
+      <c r="AP178" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="AQ178" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR178" s="19">
         <v>36</v>
@@ -24838,7 +26251,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
         <v>532</v>
       </c>
@@ -24917,6 +26330,18 @@
       <c r="Z179" s="19">
         <v>40</v>
       </c>
+      <c r="AA179" s="12">
+        <f t="shared" si="8"/>
+        <v>20.5</v>
+      </c>
+      <c r="AB179" s="12">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="AC179" s="12">
+        <f t="shared" si="10"/>
+        <v>283</v>
+      </c>
       <c r="AG179" s="6">
         <v>18.5</v>
       </c>
@@ -24930,7 +26355,7 @@
         <v>239.5</v>
       </c>
       <c r="AK179" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>532</v>
       </c>
       <c r="AL179" s="16">
@@ -24945,11 +26370,11 @@
       <c r="AO179" s="8">
         <v>42</v>
       </c>
-      <c r="AP179" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ179" s="7" t="s">
-        <v>221</v>
+      <c r="AP179" s="33">
+        <v>5.5</v>
+      </c>
+      <c r="AQ179" s="33">
+        <v>3.2</v>
       </c>
       <c r="AR179" s="19">
         <v>34</v>
@@ -24970,7 +26395,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="180" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
         <v>536</v>
       </c>
@@ -25049,6 +26474,18 @@
       <c r="Z180" s="19">
         <v>45</v>
       </c>
+      <c r="AA180" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB180" s="12">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="AC180" s="12">
+        <f t="shared" si="10"/>
+        <v>487</v>
+      </c>
       <c r="AG180" s="6">
         <v>123</v>
       </c>
@@ -25062,7 +26499,7 @@
         <v>141</v>
       </c>
       <c r="AK180" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>536</v>
       </c>
       <c r="AL180" s="16">
@@ -25077,11 +26514,11 @@
       <c r="AO180" s="8">
         <v>81</v>
       </c>
-      <c r="AP180" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ180" s="7" t="s">
-        <v>213</v>
+      <c r="AP180" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AQ180" s="33">
+        <v>4.4000000000000004</v>
       </c>
       <c r="AR180" s="19">
         <v>42</v>
@@ -25102,7 +26539,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="181" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
         <v>537</v>
       </c>
@@ -25181,6 +26618,18 @@
       <c r="Z181" s="19">
         <v>10</v>
       </c>
+      <c r="AA181" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB181" s="12">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="AC181" s="12">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
       <c r="AG181" s="6">
         <v>107</v>
       </c>
@@ -25194,7 +26643,7 @@
         <v>101</v>
       </c>
       <c r="AK181" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>537</v>
       </c>
       <c r="AL181" s="16">
@@ -25209,11 +26658,11 @@
       <c r="AO181" s="8">
         <v>50</v>
       </c>
-      <c r="AP181" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="AQ181" s="7" t="s">
-        <v>221</v>
+      <c r="AP181" s="33">
+        <v>5.4</v>
+      </c>
+      <c r="AQ181" s="33">
+        <v>3.2</v>
       </c>
       <c r="AR181" s="19">
         <v>37</v>
@@ -25234,7 +26683,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="182" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
         <v>538</v>
       </c>
@@ -25313,6 +26762,18 @@
       <c r="Z182" s="19">
         <v>35</v>
       </c>
+      <c r="AA182" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB182" s="12">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="AC182" s="12">
+        <f t="shared" si="10"/>
+        <v>233</v>
+      </c>
       <c r="AG182" s="6">
         <v>119</v>
       </c>
@@ -25326,7 +26787,7 @@
         <v>125</v>
       </c>
       <c r="AK182" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>538</v>
       </c>
       <c r="AL182" s="16">
@@ -25341,11 +26802,11 @@
       <c r="AO182" s="8">
         <v>58</v>
       </c>
-      <c r="AP182" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="AQ182" s="7" t="s">
-        <v>234</v>
+      <c r="AP182" s="33">
+        <v>5.3</v>
+      </c>
+      <c r="AQ182" s="33">
+        <v>2.2999999999999998</v>
       </c>
       <c r="AR182" s="19">
         <v>42</v>
@@ -25366,7 +26827,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="183" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
         <v>543</v>
       </c>
@@ -25445,8 +26906,20 @@
       <c r="Z183" s="19">
         <v>45</v>
       </c>
+      <c r="AA183" s="12">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="AB183" s="12">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="AC183" s="12">
+        <f t="shared" si="10"/>
+        <v>510</v>
+      </c>
       <c r="AK183" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>543</v>
       </c>
       <c r="AL183" s="16">
@@ -25486,7 +26959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
         <v>550</v>
       </c>
@@ -25565,8 +27038,20 @@
       <c r="Z184" s="19">
         <v>40</v>
       </c>
+      <c r="AA184" s="12">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AB184" s="12">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="AC184" s="12">
+        <f t="shared" si="10"/>
+        <v>273</v>
+      </c>
       <c r="AK184" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>550</v>
       </c>
       <c r="AL184" s="16">
@@ -25581,11 +27066,11 @@
       <c r="AO184" s="8">
         <v>42</v>
       </c>
-      <c r="AP184" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="AQ184" s="7" t="s">
-        <v>216</v>
+      <c r="AP184" s="33">
+        <v>5.5</v>
+      </c>
+      <c r="AQ184" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR184" s="19">
         <v>43</v>
@@ -25606,7 +27091,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="185" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
         <v>549</v>
       </c>
@@ -25685,8 +27170,20 @@
       <c r="Z185" s="19">
         <v>15</v>
       </c>
+      <c r="AA185" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB185" s="12">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="AC185" s="12">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
       <c r="AK185" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>549</v>
       </c>
       <c r="AL185" s="16" t="s">
@@ -25726,7 +27223,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="186" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
         <v>551</v>
       </c>
@@ -25805,8 +27302,20 @@
       <c r="Z186" s="19">
         <v>35</v>
       </c>
+      <c r="AA186" s="12">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="AB186" s="12">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="AC186" s="12">
+        <f t="shared" si="10"/>
+        <v>377</v>
+      </c>
       <c r="AK186" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>551</v>
       </c>
       <c r="AL186" s="16">
@@ -25843,10 +27352,10 @@
         <v>31</v>
       </c>
       <c r="AZ186" s="23" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="187" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
         <v>552</v>
       </c>
@@ -25925,8 +27434,20 @@
       <c r="Z187" s="19">
         <v>25</v>
       </c>
+      <c r="AA187" s="12">
+        <f t="shared" si="8"/>
+        <v>25.5</v>
+      </c>
+      <c r="AB187" s="12">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="AC187" s="12">
+        <f t="shared" si="10"/>
+        <v>276</v>
+      </c>
       <c r="AK187" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>552</v>
       </c>
       <c r="AL187" s="16">
@@ -25941,11 +27462,11 @@
       <c r="AO187" s="8">
         <v>65</v>
       </c>
-      <c r="AP187" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ187" s="7" t="s">
-        <v>228</v>
+      <c r="AP187" s="33">
+        <v>3.4</v>
+      </c>
+      <c r="AQ187" s="33">
+        <v>5.5</v>
       </c>
       <c r="AR187" s="19">
         <v>47</v>
@@ -25966,7 +27487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
         <v>561</v>
       </c>
@@ -26045,6 +27566,18 @@
       <c r="Z188" s="19">
         <v>10</v>
       </c>
+      <c r="AA188" s="12">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="AB188" s="12">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="AC188" s="12">
+        <f t="shared" si="10"/>
+        <v>413</v>
+      </c>
       <c r="AG188" s="6">
         <v>122</v>
       </c>
@@ -26058,7 +27591,7 @@
         <v>133</v>
       </c>
       <c r="AK188" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>561</v>
       </c>
       <c r="AL188" s="16">
@@ -26098,7 +27631,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="189" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
         <v>562</v>
       </c>
@@ -26177,6 +27710,18 @@
       <c r="Z189" s="19">
         <v>5</v>
       </c>
+      <c r="AA189" s="12">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AB189" s="12">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AC189" s="12">
+        <f t="shared" si="10"/>
+        <v>95</v>
+      </c>
       <c r="AG189" s="6">
         <v>98</v>
       </c>
@@ -26190,7 +27735,7 @@
         <v>103</v>
       </c>
       <c r="AK189" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>562</v>
       </c>
       <c r="AL189" s="16">
@@ -26208,8 +27753,8 @@
       <c r="AP189" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AQ189" s="7" t="s">
-        <v>216</v>
+      <c r="AQ189" s="33">
+        <v>3.3</v>
       </c>
       <c r="AR189" s="19">
         <v>48</v>
@@ -26228,1578 +27773,6 @@
       </c>
       <c r="AZ189" s="23">
         <v>84</v>
-      </c>
-    </row>
-    <row r="190" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="AK190" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="AK191" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="AK192" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK193" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK194" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK195" s="5">
-        <f t="shared" ref="AK195:AK258" si="6">A195</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK196" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK197" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK198" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK199" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK200" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK201" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK202" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK203" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK204" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK205" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK206" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK207" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK208" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK209" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK210" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK211" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK212" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK213" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK214" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK215" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK216" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK217" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK218" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK219" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK220" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK221" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK222" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK223" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK224" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK225" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK226" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK227" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK228" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK229" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK230" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK231" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK232" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK233" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK234" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK235" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK236" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK237" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK238" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK239" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK240" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK241" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK242" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK243" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK244" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK245" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK246" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK247" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK248" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK249" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK250" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK251" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK252" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK253" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK254" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK255" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK256" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK257" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK258" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK259" s="5">
-        <f t="shared" ref="AK259:AK322" si="7">A259</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK260" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK261" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK262" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK263" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK264" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK265" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK266" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK267" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK268" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK269" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK270" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK271" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK272" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK273" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK274" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK275" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK276" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK277" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK278" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK279" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK280" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK281" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK282" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK283" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK284" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK285" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK286" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK287" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK288" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK289" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK290" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK291" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK292" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK293" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK294" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK295" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK296" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK297" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK298" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK299" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK300" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK301" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK302" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK303" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK304" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK305" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK306" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK307" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK308" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK309" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK310" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK311" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK312" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK313" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK314" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK315" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK316" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK317" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK318" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK319" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK320" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK321" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK322" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK323" s="5">
-        <f t="shared" ref="AK323:AK386" si="8">A323</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK324" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK325" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK326" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK327" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK328" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK329" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK330" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK331" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK332" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK333" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK334" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK335" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK336" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK337" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK338" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK339" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK340" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK341" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK342" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK343" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK344" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK345" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK346" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK347" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK348" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK349" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK350" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK351" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK352" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK353" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK354" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK355" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK356" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK357" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK358" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK359" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK360" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK361" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK362" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK363" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK364" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK365" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK366" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK367" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK368" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK369" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK370" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK371" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK372" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK373" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK374" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK375" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK376" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK377" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK378" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK379" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK380" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK381" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK382" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK383" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK384" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK385" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK386" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK387" s="5">
-        <f t="shared" ref="AK387:AK450" si="9">A387</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK388" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK389" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK390" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK391" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK392" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK393" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK394" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK395" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK396" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK397" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK398" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK399" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK400" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK401" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK402" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK403" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK404" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK405" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK406" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK407" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK408" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK409" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK410" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK411" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK412" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK413" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK414" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK415" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK416" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK417" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK418" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK419" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK420" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK421" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK422" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK423" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK424" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK425" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK426" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK427" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK428" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK429" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK430" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK431" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK432" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK433" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK434" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK435" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK436" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK437" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK438" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK439" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK440" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK441" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK442" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK443" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK444" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK445" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK446" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK447" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK448" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK449" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK450" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="37:37" x14ac:dyDescent="0.25">
-      <c r="AK451" s="5">
-        <f t="shared" ref="AK451" si="10">A451</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27814,7 +27787,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27826,7 +27799,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CRIq_dataworksheet_m.xlsx
+++ b/CRIq_dataworksheet_m.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\CRIq_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Thesis Work\CRIq_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="221">
   <si>
     <t>Age</t>
   </si>
@@ -558,9 +558,6 @@
   </si>
   <si>
     <t>43.97</t>
-  </si>
-  <si>
-    <t>84.6</t>
   </si>
   <si>
     <t>52.88</t>
@@ -1204,34 +1201,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG162" workbookViewId="0">
-      <selection activeCell="AQ181" sqref="AQ181"/>
+    <sheetView tabSelected="1" topLeftCell="AG34" workbookViewId="0">
+      <selection activeCell="AZ59" sqref="AZ59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="5"/>
-    <col min="3" max="4" width="9.109375" style="6"/>
-    <col min="5" max="9" width="9.109375" style="7"/>
-    <col min="10" max="14" width="9.109375" style="11"/>
-    <col min="15" max="20" width="9.109375" style="16"/>
-    <col min="21" max="23" width="9.109375" style="8"/>
-    <col min="24" max="26" width="9.109375" style="19"/>
-    <col min="27" max="32" width="9.109375" style="12"/>
-    <col min="33" max="36" width="9.109375" style="6"/>
-    <col min="37" max="37" width="9.109375" style="5"/>
-    <col min="38" max="39" width="9.109375" style="16"/>
-    <col min="40" max="41" width="9.109375" style="8"/>
-    <col min="42" max="43" width="9.109375" style="7"/>
-    <col min="44" max="46" width="9.109375" style="19"/>
-    <col min="47" max="47" width="9.109375" style="6"/>
-    <col min="48" max="49" width="9.109375" style="29"/>
-    <col min="50" max="50" width="9.109375" style="31"/>
-    <col min="51" max="51" width="9.109375" style="8"/>
-    <col min="52" max="52" width="9.109375" style="23"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="3" max="4" width="9.140625" style="6"/>
+    <col min="5" max="9" width="9.140625" style="7"/>
+    <col min="10" max="14" width="9.140625" style="11"/>
+    <col min="15" max="20" width="9.140625" style="16"/>
+    <col min="21" max="23" width="9.140625" style="8"/>
+    <col min="24" max="26" width="9.140625" style="19"/>
+    <col min="27" max="32" width="9.140625" style="12"/>
+    <col min="33" max="36" width="9.140625" style="6"/>
+    <col min="37" max="37" width="9.140625" style="5"/>
+    <col min="38" max="39" width="9.140625" style="16"/>
+    <col min="40" max="41" width="9.140625" style="8"/>
+    <col min="42" max="43" width="9.140625" style="7"/>
+    <col min="44" max="46" width="9.140625" style="19"/>
+    <col min="47" max="47" width="9.140625" style="6"/>
+    <col min="48" max="49" width="9.140625" style="29"/>
+    <col min="50" max="50" width="9.140625" style="31"/>
+    <col min="51" max="51" width="9.140625" style="8"/>
+    <col min="52" max="52" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
@@ -1395,7 +1392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>181</v>
       </c>
@@ -1552,7 +1549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>182</v>
       </c>
@@ -1699,7 +1696,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>211</v>
       </c>
@@ -1825,7 +1822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>212</v>
       </c>
@@ -1963,7 +1960,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>213</v>
       </c>
@@ -2110,7 +2107,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>214</v>
       </c>
@@ -2251,7 +2248,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>215</v>
       </c>
@@ -2398,7 +2395,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>216</v>
       </c>
@@ -2545,7 +2542,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>217</v>
       </c>
@@ -2692,7 +2689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>218</v>
       </c>
@@ -2833,7 +2830,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>241</v>
       </c>
@@ -2980,7 +2977,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>242</v>
       </c>
@@ -3121,7 +3118,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>243</v>
       </c>
@@ -3268,7 +3265,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>244</v>
       </c>
@@ -3415,7 +3412,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>245</v>
       </c>
@@ -3562,7 +3559,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>246</v>
       </c>
@@ -3709,7 +3706,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>247</v>
       </c>
@@ -3856,7 +3853,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>248</v>
       </c>
@@ -4003,7 +4000,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>249</v>
       </c>
@@ -4150,7 +4147,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>250</v>
       </c>
@@ -4297,7 +4294,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>251</v>
       </c>
@@ -4444,7 +4441,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>253</v>
       </c>
@@ -4591,7 +4588,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>254</v>
       </c>
@@ -4738,7 +4735,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>255</v>
       </c>
@@ -4885,7 +4882,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>256</v>
       </c>
@@ -5032,7 +5029,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>257</v>
       </c>
@@ -5179,7 +5176,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>258</v>
       </c>
@@ -5326,7 +5323,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>61</v>
       </c>
@@ -5473,7 +5470,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>62</v>
       </c>
@@ -5620,7 +5617,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>63</v>
       </c>
@@ -5767,7 +5764,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>64</v>
       </c>
@@ -5914,7 +5911,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>65</v>
       </c>
@@ -6061,7 +6058,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>66</v>
       </c>
@@ -6208,7 +6205,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>67</v>
       </c>
@@ -6355,7 +6352,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>68</v>
       </c>
@@ -6502,7 +6499,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>69</v>
       </c>
@@ -6649,7 +6646,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>70</v>
       </c>
@@ -6796,7 +6793,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>71</v>
       </c>
@@ -6943,7 +6940,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>72</v>
       </c>
@@ -7090,7 +7087,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>91</v>
       </c>
@@ -7237,7 +7234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>92</v>
       </c>
@@ -7384,7 +7381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>93</v>
       </c>
@@ -7531,7 +7528,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>94</v>
       </c>
@@ -7678,7 +7675,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>95</v>
       </c>
@@ -7825,7 +7822,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>96</v>
       </c>
@@ -7972,7 +7969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>97</v>
       </c>
@@ -8119,7 +8116,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>98</v>
       </c>
@@ -8266,7 +8263,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>99</v>
       </c>
@@ -8413,7 +8410,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>421</v>
       </c>
@@ -8521,7 +8518,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>422</v>
       </c>
@@ -8629,7 +8626,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>423</v>
       </c>
@@ -8737,7 +8734,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>424</v>
       </c>
@@ -8845,7 +8842,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>425</v>
       </c>
@@ -8953,7 +8950,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>426</v>
       </c>
@@ -9061,7 +9058,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>427</v>
       </c>
@@ -9169,7 +9166,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>1</v>
       </c>
@@ -9316,7 +9313,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>2</v>
       </c>
@@ -9463,7 +9460,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>3</v>
       </c>
@@ -9606,11 +9603,11 @@
       <c r="AY59" s="8">
         <v>26</v>
       </c>
-      <c r="AZ59" s="23" t="s">
-        <v>179</v>
+      <c r="AZ59" s="23">
+        <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>5</v>
       </c>
@@ -9757,7 +9754,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>6</v>
       </c>
@@ -9904,7 +9901,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>31</v>
       </c>
@@ -10018,10 +10015,10 @@
         <v>11</v>
       </c>
       <c r="AN62" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO62" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="AO62" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="AP62" s="7">
         <v>8</v>
@@ -10030,13 +10027,13 @@
         <v>8</v>
       </c>
       <c r="AR62" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS62" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="AS62" s="19" t="s">
+      <c r="AT62" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="AT62" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="AU62" s="6">
         <v>45</v>
@@ -10051,7 +10048,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>32</v>
       </c>
@@ -10162,7 +10159,7 @@
         <v>11</v>
       </c>
       <c r="AM63" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AU63" s="6">
         <v>21</v>
@@ -10177,7 +10174,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>33</v>
       </c>
@@ -10291,10 +10288,10 @@
         <v>66</v>
       </c>
       <c r="AN64" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO64" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="AO64" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="AP64" s="7">
         <v>9</v>
@@ -10303,13 +10300,13 @@
         <v>9</v>
       </c>
       <c r="AR64" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS64" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="AS64" s="19" t="s">
+      <c r="AT64" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="AT64" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="AU64" s="6">
         <v>42</v>
@@ -10324,7 +10321,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>34</v>
       </c>
@@ -10432,16 +10429,16 @@
         <v>34</v>
       </c>
       <c r="AL65" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AM65" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN65" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO65" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="AO65" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="AP65" s="7">
         <v>8</v>
@@ -10450,13 +10447,13 @@
         <v>5</v>
       </c>
       <c r="AR65" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS65" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="AS65" s="19" t="s">
+      <c r="AT65" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="AT65" s="19" t="s">
-        <v>194</v>
       </c>
       <c r="AU65" s="6">
         <v>37</v>
@@ -10471,7 +10468,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>35</v>
       </c>
@@ -10582,13 +10579,13 @@
         <v>16</v>
       </c>
       <c r="AM66" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AN66" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO66" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="AO66" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="AP66" s="7">
         <v>9</v>
@@ -10597,13 +10594,13 @@
         <v>9</v>
       </c>
       <c r="AR66" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS66" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="AS66" s="19" t="s">
+      <c r="AT66" s="19" t="s">
         <v>200</v>
-      </c>
-      <c r="AT66" s="19" t="s">
-        <v>201</v>
       </c>
       <c r="AU66" s="6">
         <v>37</v>
@@ -10618,7 +10615,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>36</v>
       </c>
@@ -10732,10 +10729,10 @@
         <v>6</v>
       </c>
       <c r="AN67" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO67" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="AO67" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="AP67" s="7">
         <v>8</v>
@@ -10744,13 +10741,13 @@
         <v>6</v>
       </c>
       <c r="AR67" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS67" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="AS67" s="19" t="s">
+      <c r="AT67" s="19" t="s">
         <v>203</v>
-      </c>
-      <c r="AT67" s="19" t="s">
-        <v>204</v>
       </c>
       <c r="AU67" s="6">
         <v>40</v>
@@ -10765,7 +10762,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>37</v>
       </c>
@@ -10879,10 +10876,10 @@
         <v>68</v>
       </c>
       <c r="AN68" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO68" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="AO68" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="AP68" s="7">
         <v>3.3</v>
@@ -10891,13 +10888,13 @@
         <v>4.2</v>
       </c>
       <c r="AR68" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS68" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="AS68" s="19" t="s">
+      <c r="AT68" s="19" t="s">
         <v>208</v>
-      </c>
-      <c r="AT68" s="19" t="s">
-        <v>209</v>
       </c>
       <c r="AU68" s="6">
         <v>39</v>
@@ -10912,7 +10909,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>73</v>
       </c>
@@ -11059,7 +11056,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>331</v>
       </c>
@@ -11167,7 +11164,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>302</v>
       </c>
@@ -11275,7 +11272,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>303</v>
       </c>
@@ -11383,7 +11380,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>364</v>
       </c>
@@ -11491,7 +11488,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>365</v>
       </c>
@@ -11599,7 +11596,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>366</v>
       </c>
@@ -11707,7 +11704,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>367</v>
       </c>
@@ -11815,7 +11812,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>368</v>
       </c>
@@ -11923,7 +11920,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>369</v>
       </c>
@@ -12031,7 +12028,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>370</v>
       </c>
@@ -12139,7 +12136,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>371</v>
       </c>
@@ -12247,7 +12244,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>372</v>
       </c>
@@ -12355,7 +12352,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>373</v>
       </c>
@@ -12463,7 +12460,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>374</v>
       </c>
@@ -12571,7 +12568,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>375</v>
       </c>
@@ -12679,7 +12676,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>376</v>
       </c>
@@ -12787,7 +12784,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>377</v>
       </c>
@@ -12895,7 +12892,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>378</v>
       </c>
@@ -13003,7 +13000,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>379</v>
       </c>
@@ -13111,7 +13108,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>271</v>
       </c>
@@ -13258,7 +13255,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>272</v>
       </c>
@@ -13405,7 +13402,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>273</v>
       </c>
@@ -13549,7 +13546,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>274</v>
       </c>
@@ -13693,7 +13690,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>275</v>
       </c>
@@ -13837,7 +13834,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>276</v>
       </c>
@@ -13981,7 +13978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>277</v>
       </c>
@@ -14125,7 +14122,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>278</v>
       </c>
@@ -14269,7 +14266,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>279</v>
       </c>
@@ -14413,7 +14410,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>301</v>
       </c>
@@ -14557,7 +14554,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>302</v>
       </c>
@@ -14701,7 +14698,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>303</v>
       </c>
@@ -14845,7 +14842,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>304</v>
       </c>
@@ -14989,7 +14986,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>305</v>
       </c>
@@ -15133,7 +15130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>306</v>
       </c>
@@ -15277,7 +15274,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="104" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>307</v>
       </c>
@@ -15421,7 +15418,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>308</v>
       </c>
@@ -15565,7 +15562,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="106" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>309</v>
       </c>
@@ -15709,7 +15706,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>310</v>
       </c>
@@ -15853,7 +15850,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>332</v>
       </c>
@@ -16000,7 +15997,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="109" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>333</v>
       </c>
@@ -16147,7 +16144,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>334</v>
       </c>
@@ -16294,7 +16291,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>335</v>
       </c>
@@ -16441,7 +16438,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>336</v>
       </c>
@@ -16588,7 +16585,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="113" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>337</v>
       </c>
@@ -16735,7 +16732,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>338</v>
       </c>
@@ -16882,7 +16879,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>339</v>
       </c>
@@ -17017,7 +17014,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>340</v>
       </c>
@@ -17164,7 +17161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>533</v>
       </c>
@@ -17311,7 +17308,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>534</v>
       </c>
@@ -17458,7 +17455,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>535</v>
       </c>
@@ -17605,7 +17602,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>428</v>
       </c>
@@ -17752,7 +17749,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>429</v>
       </c>
@@ -17899,7 +17896,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="122" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>430</v>
       </c>
@@ -18046,7 +18043,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>403</v>
       </c>
@@ -18193,7 +18190,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>402</v>
       </c>
@@ -18340,7 +18337,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="125" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>401</v>
       </c>
@@ -18487,7 +18484,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>400</v>
       </c>
@@ -18634,7 +18631,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="127" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>399</v>
       </c>
@@ -18781,7 +18778,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>398</v>
       </c>
@@ -18928,7 +18925,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="129" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>391</v>
       </c>
@@ -19075,7 +19072,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="130" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>397</v>
       </c>
@@ -19222,7 +19219,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>396</v>
       </c>
@@ -19326,7 +19323,7 @@
         <v>137</v>
       </c>
       <c r="AK131" s="5">
-        <f t="shared" ref="AK131:AK194" si="11">A131</f>
+        <f t="shared" ref="AK131:AK189" si="11">A131</f>
         <v>396</v>
       </c>
       <c r="AL131" s="16">
@@ -19369,7 +19366,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>395</v>
       </c>
@@ -19516,7 +19513,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>394</v>
       </c>
@@ -19663,7 +19660,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="134" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>393</v>
       </c>
@@ -19810,7 +19807,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="135" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>392</v>
       </c>
@@ -19957,7 +19954,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>526</v>
       </c>
@@ -20104,7 +20101,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="137" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>539</v>
       </c>
@@ -20251,7 +20248,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>540</v>
       </c>
@@ -20398,7 +20395,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>542</v>
       </c>
@@ -20545,7 +20542,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>545</v>
       </c>
@@ -20692,7 +20689,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="141" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>548</v>
       </c>
@@ -20839,7 +20836,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="142" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>560</v>
       </c>
@@ -20986,7 +20983,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>570</v>
       </c>
@@ -21124,16 +21121,16 @@
         <v>34</v>
       </c>
       <c r="AX143" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AY143" s="8">
         <v>29</v>
       </c>
       <c r="AZ143" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="144" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>571</v>
       </c>
@@ -21280,7 +21277,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="145" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>573</v>
       </c>
@@ -21427,7 +21424,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="146" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>575</v>
       </c>
@@ -21574,7 +21571,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="147" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>451</v>
       </c>
@@ -21721,7 +21718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="148" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>452</v>
       </c>
@@ -21868,7 +21865,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="149" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>453</v>
       </c>
@@ -22015,7 +22012,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="150" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>454</v>
       </c>
@@ -22162,7 +22159,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>455</v>
       </c>
@@ -22309,7 +22306,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="152" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>456</v>
       </c>
@@ -22456,7 +22453,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>457</v>
       </c>
@@ -22603,7 +22600,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="154" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>458</v>
       </c>
@@ -22750,7 +22747,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="155" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>459</v>
       </c>
@@ -22897,7 +22894,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>460</v>
       </c>
@@ -23044,7 +23041,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="157" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>461</v>
       </c>
@@ -23191,7 +23188,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="158" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>462</v>
       </c>
@@ -23338,7 +23335,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="159" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>481</v>
       </c>
@@ -23485,7 +23482,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="160" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>121</v>
       </c>
@@ -23632,7 +23629,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="161" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>122</v>
       </c>
@@ -23779,7 +23776,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="162" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>123</v>
       </c>
@@ -23926,7 +23923,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>124</v>
       </c>
@@ -24073,7 +24070,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="164" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>125</v>
       </c>
@@ -24220,7 +24217,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="165" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>151</v>
       </c>
@@ -24367,7 +24364,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="166" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>152</v>
       </c>
@@ -24429,7 +24426,7 @@
         <v>15</v>
       </c>
       <c r="U166" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V166" s="8">
         <v>50</v>
@@ -24441,7 +24438,7 @@
         <v>1</v>
       </c>
       <c r="Y166" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Z166" s="19">
         <v>20</v>
@@ -24514,7 +24511,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="167" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>153</v>
       </c>
@@ -24564,7 +24561,7 @@
         <v>0</v>
       </c>
       <c r="Q167" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R167" s="16" t="s">
         <v>31</v>
@@ -24661,7 +24658,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="168" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>100</v>
       </c>
@@ -24808,7 +24805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="169" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>101</v>
       </c>
@@ -24955,7 +24952,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="170" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>426</v>
       </c>
@@ -25099,7 +25096,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="171" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>500</v>
       </c>
@@ -25107,7 +25104,7 @@
         <v>31</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D171" s="6">
         <v>0</v>
@@ -25243,7 +25240,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="172" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>520</v>
       </c>
@@ -25278,7 +25275,7 @@
         <v>10</v>
       </c>
       <c r="L172" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M172" s="11">
         <v>0</v>
@@ -25290,7 +25287,7 @@
         <v>15</v>
       </c>
       <c r="P172" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q172" s="16">
         <v>0</v>
@@ -25387,7 +25384,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="173" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>521</v>
       </c>
@@ -25531,7 +25528,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="174" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>525</v>
       </c>
@@ -25560,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="J174" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K174" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L174" s="11">
         <v>0</v>
@@ -25675,7 +25672,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="175" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>527</v>
       </c>
@@ -25819,7 +25816,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="176" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>528</v>
       </c>
@@ -25963,7 +25960,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="177" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>530</v>
       </c>
@@ -26031,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="W177" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X177" s="19">
         <v>0</v>
@@ -26101,13 +26098,13 @@
         <v>46</v>
       </c>
       <c r="AY177" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AZ177" s="23">
         <v>72</v>
       </c>
     </row>
-    <row r="178" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>531</v>
       </c>
@@ -26251,7 +26248,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>532</v>
       </c>
@@ -26395,7 +26392,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="180" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>536</v>
       </c>
@@ -26539,7 +26536,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="181" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>537</v>
       </c>
@@ -26683,7 +26680,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="182" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>538</v>
       </c>
@@ -26827,7 +26824,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="183" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>543</v>
       </c>
@@ -26959,7 +26956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>550</v>
       </c>
@@ -27091,7 +27088,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="185" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>549</v>
       </c>
@@ -27223,7 +27220,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="186" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>551</v>
       </c>
@@ -27352,10 +27349,10 @@
         <v>31</v>
       </c>
       <c r="AZ186" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="187" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>552</v>
       </c>
@@ -27487,7 +27484,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>561</v>
       </c>
@@ -27631,7 +27628,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="189" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>562</v>
       </c>
@@ -27787,7 +27784,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27799,7 +27796,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
